--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003308561839592272</v>
+        <v>0.003308561840034585</v>
       </c>
       <c r="D2">
-        <v>0.03491410462757472</v>
+        <v>0.03491410462758182</v>
       </c>
       <c r="E2">
-        <v>0.03748264833192572</v>
+        <v>0.03748264833195414</v>
       </c>
       <c r="F2">
-        <v>2.323728425339937</v>
+        <v>2.323728425339908</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.769961925937622</v>
+        <v>1.769961925937608</v>
       </c>
       <c r="I2">
-        <v>0.01112121864698778</v>
+        <v>0.01112121864698956</v>
       </c>
       <c r="J2">
-        <v>8.195551348106022</v>
+        <v>8.195551348105994</v>
       </c>
       <c r="K2">
-        <v>0.02570634937164762</v>
+        <v>0.0257063493716494</v>
       </c>
       <c r="L2">
-        <v>4.925753608606442</v>
+        <v>4.925753608606414</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001952929179561913</v>
+        <v>0.001952929179341645</v>
       </c>
       <c r="D3">
-        <v>0.02678989119870323</v>
+        <v>0.02678989119882402</v>
       </c>
       <c r="E3">
-        <v>0.03398807793974257</v>
+        <v>0.03398807793973191</v>
       </c>
       <c r="F3">
         <v>1.975168947882722</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.502554077009648</v>
+        <v>1.502554077009677</v>
       </c>
       <c r="I3">
-        <v>0.01121765782854478</v>
+        <v>0.01121765782856876</v>
       </c>
       <c r="J3">
-        <v>7.035625013172449</v>
+        <v>7.035625013172421</v>
       </c>
       <c r="K3">
-        <v>0.02364805633329681</v>
+        <v>0.02364805633329858</v>
       </c>
       <c r="L3">
-        <v>4.228586208438799</v>
+        <v>4.228586208438827</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001319582876517345</v>
+        <v>0.001319582876528003</v>
       </c>
       <c r="D4">
-        <v>0.0226803853161428</v>
+        <v>0.02268038531602912</v>
       </c>
       <c r="E4">
-        <v>0.03188873195124842</v>
+        <v>0.03188873195125552</v>
       </c>
       <c r="F4">
         <v>1.782471482103318</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.354903235774927</v>
+        <v>1.354903235774913</v>
       </c>
       <c r="I4">
-        <v>0.01140967938145288</v>
+        <v>0.01140967938147419</v>
       </c>
       <c r="J4">
-        <v>6.341115420636157</v>
+        <v>6.341115420636129</v>
       </c>
       <c r="K4">
-        <v>0.02244611075528624</v>
+        <v>0.02244611075530401</v>
       </c>
       <c r="L4">
-        <v>3.811698918115397</v>
+        <v>3.811698918115439</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.001102687883475895</v>
+        <v>0.001102687883257403</v>
       </c>
       <c r="D5">
-        <v>0.02118912515310356</v>
+        <v>0.02118912515322791</v>
       </c>
       <c r="E5">
-        <v>0.03104300767097357</v>
+        <v>0.031043007670986</v>
       </c>
       <c r="F5">
-        <v>1.708450499460739</v>
+        <v>1.708450499460724</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.298227556750106</v>
+        <v>1.298227556750092</v>
       </c>
       <c r="I5">
-        <v>0.01151724177846347</v>
+        <v>0.01151724177844216</v>
       </c>
       <c r="J5">
         <v>6.061643474770449</v>
       </c>
       <c r="K5">
-        <v>0.02196978623712376</v>
+        <v>0.0219697862371433</v>
       </c>
       <c r="L5">
-        <v>3.644064083888992</v>
+        <v>3.64406408388902</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001068934068448435</v>
+        <v>0.001068934068633176</v>
       </c>
       <c r="D6">
-        <v>0.02095161198612416</v>
+        <v>0.02095161198612061</v>
       </c>
       <c r="E6">
-        <v>0.03090311726151995</v>
+        <v>0.03090311726148087</v>
       </c>
       <c r="F6">
-        <v>1.696409255925374</v>
+        <v>1.696409255925403</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.289010336781217</v>
+        <v>1.289010336781232</v>
       </c>
       <c r="I6">
-        <v>0.0115367668758406</v>
+        <v>0.01153676687583971</v>
       </c>
       <c r="J6">
         <v>6.015428094712661</v>
       </c>
       <c r="K6">
-        <v>0.02189145273179172</v>
+        <v>0.02189145273177751</v>
       </c>
       <c r="L6">
-        <v>3.616349771877708</v>
+        <v>3.616349771877694</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001316501400309811</v>
+        <v>0.001316501400081549</v>
       </c>
       <c r="D7">
-        <v>0.0226595756563519</v>
+        <v>0.02265957565644072</v>
       </c>
       <c r="E7">
-        <v>0.03187728888723917</v>
+        <v>0.03187728888719832</v>
       </c>
       <c r="F7">
-        <v>1.781455990918445</v>
+        <v>1.78145599091846</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.354125537644208</v>
+        <v>1.35412553764418</v>
       </c>
       <c r="I7">
-        <v>0.01141101619711371</v>
+        <v>0.01141101619709772</v>
       </c>
       <c r="J7">
         <v>6.33733308480771</v>
       </c>
       <c r="K7">
-        <v>0.02243963479743094</v>
+        <v>0.02243963479742739</v>
       </c>
       <c r="L7">
-        <v>3.809429696084678</v>
+        <v>3.809429696084649</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.002793922753941303</v>
+        <v>0.002793922753912881</v>
       </c>
       <c r="D8">
-        <v>0.03190543341521845</v>
+        <v>0.03190543341519714</v>
       </c>
       <c r="E8">
-        <v>0.03626686942396518</v>
+        <v>0.0362668694239936</v>
       </c>
       <c r="F8">
-        <v>2.198552751523437</v>
+        <v>2.198552751523479</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.673885866612522</v>
+        <v>1.673885866612551</v>
       </c>
       <c r="I8">
-        <v>0.01112420324151131</v>
+        <v>0.01112420324149888</v>
       </c>
       <c r="J8">
-        <v>7.791341156902575</v>
+        <v>7.791341156902604</v>
       </c>
       <c r="K8">
-        <v>0.02498244539923533</v>
+        <v>0.02498244539923355</v>
       </c>
       <c r="L8">
-        <v>4.682680373323791</v>
+        <v>4.682680373323848</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007792857682204613</v>
+        <v>0.007792857682208165</v>
       </c>
       <c r="D9">
-        <v>0.05921494271657934</v>
+        <v>0.05921494271669303</v>
       </c>
       <c r="E9">
-        <v>0.04534860782732508</v>
+        <v>0.04534860782730021</v>
       </c>
       <c r="F9">
-        <v>3.235153090661157</v>
+        <v>3.235153090661186</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.470669293251774</v>
+        <v>2.470669293251788</v>
       </c>
       <c r="I9">
-        <v>0.01185031395989622</v>
+        <v>0.01185031395988556</v>
       </c>
       <c r="J9">
         <v>10.8346996172094</v>
       </c>
       <c r="K9">
-        <v>0.03057705646210884</v>
+        <v>0.03057705646212483</v>
       </c>
       <c r="L9">
-        <v>6.515915243286116</v>
+        <v>6.515915243286145</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01377816755570471</v>
+        <v>0.01377816755544536</v>
       </c>
       <c r="D10">
-        <v>0.08919341098361855</v>
+        <v>0.08919341098328459</v>
       </c>
       <c r="E10">
-        <v>0.05250610472000616</v>
+        <v>0.05250610472001682</v>
       </c>
       <c r="F10">
-        <v>4.22524042043986</v>
+        <v>4.225240420439889</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.233609280943526</v>
+        <v>3.233609280943554</v>
       </c>
       <c r="I10">
-        <v>0.01361496254205363</v>
+        <v>0.01361496254205896</v>
       </c>
       <c r="J10">
-        <v>13.28551415362807</v>
+        <v>13.28551415362813</v>
       </c>
       <c r="K10">
-        <v>0.03527478740912926</v>
+        <v>0.03527478740913281</v>
       </c>
       <c r="L10">
-        <v>7.997199566508982</v>
+        <v>7.997199566509067</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01737976540086095</v>
+        <v>0.01737976540087693</v>
       </c>
       <c r="D11">
-        <v>0.1065465089405748</v>
+        <v>0.1065465089405819</v>
       </c>
       <c r="E11">
-        <v>0.05593290248355487</v>
+        <v>0.05593290248354421</v>
       </c>
       <c r="F11">
-        <v>4.758918649542096</v>
+        <v>4.758918649542011</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.6454421654486</v>
+        <v>3.645442165448543</v>
       </c>
       <c r="I11">
-        <v>0.0148392409587137</v>
+        <v>0.01483924095872524</v>
       </c>
       <c r="J11">
-        <v>14.48081728521981</v>
+        <v>14.4808172852197</v>
       </c>
       <c r="K11">
-        <v>0.03761117508477341</v>
+        <v>0.03761117508478939</v>
       </c>
       <c r="L11">
         <v>8.721223216652902</v>
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01892087768990258</v>
+        <v>0.01892087768994877</v>
       </c>
       <c r="D12">
-        <v>0.1138616839640179</v>
+        <v>0.1138616839637336</v>
       </c>
       <c r="E12">
-        <v>0.05726324581327447</v>
+        <v>0.05726324581323539</v>
       </c>
       <c r="F12">
-        <v>4.977417113770883</v>
+        <v>4.977417113770997</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.814159642596934</v>
+        <v>3.814159642597019</v>
       </c>
       <c r="I12">
-        <v>0.01538331661537384</v>
+        <v>0.01538331661537207</v>
       </c>
       <c r="J12">
-        <v>14.94935291314954</v>
+        <v>14.94935291314965</v>
       </c>
       <c r="K12">
-        <v>0.03853343924641095</v>
+        <v>0.03853343924644292</v>
       </c>
       <c r="L12">
-        <v>9.005309762913015</v>
+        <v>9.005309762913129</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0185800056940213</v>
+        <v>0.01858000569402307</v>
       </c>
       <c r="D13">
-        <v>0.112248703146669</v>
+        <v>0.1122487031466619</v>
       </c>
       <c r="E13">
         <v>0.05697511315128523</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3.777183139922855</v>
+        <v>3.777183139922869</v>
       </c>
       <c r="I13">
-        <v>0.01526215085666927</v>
+        <v>0.01526215085664262</v>
       </c>
       <c r="J13">
-        <v>14.84764829201097</v>
+        <v>14.84764829201106</v>
       </c>
       <c r="K13">
-        <v>0.03833296523859353</v>
+        <v>0.03833296523857754</v>
       </c>
       <c r="L13">
-        <v>8.94362971854909</v>
+        <v>8.943629718549175</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01750262119485413</v>
+        <v>0.01750262119482926</v>
       </c>
       <c r="D14">
-        <v>0.10713186415515</v>
+        <v>0.1071318641551144</v>
       </c>
       <c r="E14">
-        <v>0.05604163715961263</v>
+        <v>0.05604163715961974</v>
       </c>
       <c r="F14">
-        <v>4.776533186984238</v>
+        <v>4.776533186984324</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.659041363809607</v>
+        <v>3.659041363809678</v>
       </c>
       <c r="I14">
-        <v>0.01488224524221948</v>
+        <v>0.01488224524220083</v>
       </c>
       <c r="J14">
-        <v>14.51901369592304</v>
+        <v>14.51901369592298</v>
       </c>
       <c r="K14">
-        <v>0.0376862351455447</v>
+        <v>0.03768623514556957</v>
       </c>
       <c r="L14">
         <v>8.744376796709332</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01686769969018087</v>
+        <v>0.0168676996895023</v>
       </c>
       <c r="D15">
-        <v>0.1041024291701689</v>
+        <v>0.1041024291701831</v>
       </c>
       <c r="E15">
-        <v>0.05547440958275729</v>
+        <v>0.05547440958275374</v>
       </c>
       <c r="F15">
-        <v>4.685116027692203</v>
+        <v>4.685116027692231</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.588467523865802</v>
+        <v>3.588467523865816</v>
       </c>
       <c r="I15">
-        <v>0.01466075434533032</v>
+        <v>0.01466075434531522</v>
       </c>
       <c r="J15">
-        <v>14.31994665862317</v>
+        <v>14.31994665862322</v>
       </c>
       <c r="K15">
-        <v>0.0372953019957567</v>
+        <v>0.03729530199572295</v>
       </c>
       <c r="L15">
-        <v>8.623719664935066</v>
+        <v>8.623719664935038</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01356432037067989</v>
+        <v>0.01356432037089483</v>
       </c>
       <c r="D16">
-        <v>0.08814996578763612</v>
+        <v>0.0881499657877427</v>
       </c>
       <c r="E16">
-        <v>0.05228621879187045</v>
+        <v>0.05228621879188111</v>
       </c>
       <c r="F16">
-        <v>4.192375739151373</v>
+        <v>4.192375739151288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.208260539613164</v>
+        <v>3.208260539613093</v>
       </c>
       <c r="I16">
-        <v>0.01354495385315602</v>
+        <v>0.0135449538531569</v>
       </c>
       <c r="J16">
-        <v>13.20934778056574</v>
+        <v>13.20934778056562</v>
       </c>
       <c r="K16">
-        <v>0.0351267954247021</v>
+        <v>0.03512679542469144</v>
       </c>
       <c r="L16">
-        <v>7.95109882893513</v>
+        <v>7.951098828935073</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01179247670750883</v>
+        <v>0.01179247670723882</v>
       </c>
       <c r="D17">
-        <v>0.07943753430997447</v>
+        <v>0.07943753431005263</v>
       </c>
       <c r="E17">
-        <v>0.05037900135093309</v>
+        <v>0.05037900135089401</v>
       </c>
       <c r="F17">
-        <v>3.914028896701353</v>
+        <v>3.914028896701382</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.993631839300235</v>
+        <v>2.993631839300292</v>
       </c>
       <c r="I17">
         <v>0.01298020045994441</v>
       </c>
       <c r="J17">
-        <v>12.55119876600125</v>
+        <v>12.55119876600133</v>
       </c>
       <c r="K17">
-        <v>0.03385290066347046</v>
+        <v>0.03385290066350066</v>
       </c>
       <c r="L17">
-        <v>7.552919678816352</v>
+        <v>7.55291967881638</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01085206960252449</v>
+        <v>0.01085206960253338</v>
       </c>
       <c r="D18">
-        <v>0.07475963819783971</v>
+        <v>0.07475963819786813</v>
       </c>
       <c r="E18">
-        <v>0.04929747729996237</v>
+        <v>0.04929747729994105</v>
       </c>
       <c r="F18">
-        <v>3.761424211585734</v>
+        <v>3.761424211585705</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>2.876009764916503</v>
       </c>
       <c r="I18">
-        <v>0.01269350941624481</v>
+        <v>0.01269350941625369</v>
       </c>
       <c r="J18">
-        <v>12.17988213586503</v>
+        <v>12.17988213586497</v>
       </c>
       <c r="K18">
-        <v>0.03313828103965299</v>
+        <v>0.03313828103966365</v>
       </c>
       <c r="L18">
-        <v>7.328411731030059</v>
+        <v>7.328411731030002</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01054597795978474</v>
+        <v>0.01054597795978118</v>
       </c>
       <c r="D19">
-        <v>0.07322804072735067</v>
+        <v>0.07322804072732225</v>
       </c>
       <c r="E19">
-        <v>0.04893374582508514</v>
+        <v>0.0489337458250958</v>
       </c>
       <c r="F19">
         <v>3.710935512805349</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.837102879603918</v>
+        <v>2.837102879603933</v>
       </c>
       <c r="I19">
-        <v>0.01260250833632703</v>
+        <v>0.0126025083363368</v>
       </c>
       <c r="J19">
-        <v>12.05529773542665</v>
+        <v>12.05529773542668</v>
       </c>
       <c r="K19">
-        <v>0.03289920997271878</v>
+        <v>0.03289920997274898</v>
       </c>
       <c r="L19">
-        <v>7.253107006390849</v>
+        <v>7.253107006390906</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01197264850605961</v>
+        <v>0.01197264850559243</v>
       </c>
       <c r="D20">
-        <v>0.08032926552589714</v>
+        <v>0.08032926552576924</v>
       </c>
       <c r="E20">
-        <v>0.05058037885420674</v>
+        <v>0.05058037885422806</v>
       </c>
       <c r="F20">
-        <v>3.94285766514713</v>
+        <v>3.942857665147159</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.015855963805407</v>
+        <v>3.015855963805421</v>
       </c>
       <c r="I20">
-        <v>0.01303625313592427</v>
+        <v>0.01303625313590295</v>
       </c>
       <c r="J20">
-        <v>12.62048530741833</v>
+        <v>12.62048530741831</v>
       </c>
       <c r="K20">
-        <v>0.03398658253126285</v>
+        <v>0.03398658253124687</v>
       </c>
       <c r="L20">
-        <v>7.594823198767585</v>
+        <v>7.594823198767614</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01781373555690813</v>
+        <v>0.01781373555717636</v>
       </c>
       <c r="D21">
-        <v>0.108612443408731</v>
+        <v>0.1086124434086031</v>
       </c>
       <c r="E21">
-        <v>0.05631485331940667</v>
+        <v>0.05631485331936403</v>
       </c>
       <c r="F21">
-        <v>4.82098338436316</v>
+        <v>4.820983384363188</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.69336058885132</v>
+        <v>3.693360588851334</v>
       </c>
       <c r="I21">
-        <v>0.01499144778511763</v>
+        <v>0.01499144778513362</v>
       </c>
       <c r="J21">
-        <v>14.61506608351985</v>
+        <v>14.61506608351991</v>
       </c>
       <c r="K21">
         <v>0.03787508918926541</v>
       </c>
       <c r="L21">
-        <v>8.802605725907398</v>
+        <v>8.802605725907483</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02270938564410763</v>
+        <v>0.0227093856442</v>
       </c>
       <c r="D22">
-        <v>0.1316170045030276</v>
+        <v>0.1316170045023455</v>
       </c>
       <c r="E22">
-        <v>0.06025977128650695</v>
+        <v>0.06025977128652826</v>
       </c>
       <c r="F22">
-        <v>5.494321439693806</v>
+        <v>5.494321439693692</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.213521400058937</v>
+        <v>4.213521400058852</v>
       </c>
       <c r="I22">
-        <v>0.01675484138996897</v>
+        <v>0.01675484139000183</v>
       </c>
       <c r="J22">
-        <v>16.0149548076302</v>
+        <v>16.01495480763009</v>
       </c>
       <c r="K22">
-        <v>0.04064220462244528</v>
+        <v>0.04064220462245061</v>
       </c>
       <c r="L22">
-        <v>9.652014627489251</v>
+        <v>9.652014627489308</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01997368031710423</v>
+        <v>0.01997368031711666</v>
       </c>
       <c r="D23">
-        <v>0.1188264489240183</v>
+        <v>0.1188264489241249</v>
       </c>
       <c r="E23">
-        <v>0.05813260641497919</v>
+        <v>0.05813260641500761</v>
       </c>
       <c r="F23">
         <v>5.123783293208731</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.927211133235573</v>
+        <v>3.927211133235531</v>
       </c>
       <c r="I23">
-        <v>0.01576016746308806</v>
+        <v>0.01576016746310671</v>
       </c>
       <c r="J23">
-        <v>15.25700164327623</v>
+        <v>15.25700164327634</v>
       </c>
       <c r="K23">
-        <v>0.03914074932996492</v>
+        <v>0.03914074932995604</v>
       </c>
       <c r="L23">
-        <v>9.191933329829197</v>
+        <v>9.191933329829169</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01189095256666128</v>
+        <v>0.01189095256667549</v>
       </c>
       <c r="D24">
-        <v>0.07992509714021878</v>
+        <v>0.0799250971401122</v>
       </c>
       <c r="E24">
-        <v>0.0504892900494518</v>
+        <v>0.05048929004944469</v>
       </c>
       <c r="F24">
-        <v>3.929801368509175</v>
+        <v>3.929801368509089</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.005790698460046</v>
+        <v>3.00579069845999</v>
       </c>
       <c r="I24">
-        <v>0.01301079474856337</v>
+        <v>0.01301079474859002</v>
       </c>
       <c r="J24">
-        <v>12.58913916384984</v>
+        <v>12.58913916384975</v>
       </c>
       <c r="K24">
-        <v>0.03392609025869575</v>
+        <v>0.03392609025869042</v>
       </c>
       <c r="L24">
-        <v>7.575865065175009</v>
+        <v>7.57586506517498</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.006128915756871578</v>
+        <v>0.00612891575709007</v>
       </c>
       <c r="D25">
-        <v>0.05048014847359639</v>
+        <v>0.0504801484733477</v>
       </c>
       <c r="E25">
-        <v>0.04282386909528846</v>
+        <v>0.04282386909525293</v>
       </c>
       <c r="F25">
-        <v>2.923200095089584</v>
+        <v>2.923200095089612</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.230634905881431</v>
+        <v>2.230634905881473</v>
       </c>
       <c r="I25">
-        <v>0.01147763897642307</v>
+        <v>0.01147763897642395</v>
       </c>
       <c r="J25">
-        <v>9.982404225104489</v>
+        <v>9.982404225104432</v>
       </c>
       <c r="K25">
-        <v>0.02897950153745121</v>
+        <v>0.02897950153745654</v>
       </c>
       <c r="L25">
-        <v>6.001809935759212</v>
+        <v>6.001809935759184</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003308561840034585</v>
+        <v>0.003308561839592272</v>
       </c>
       <c r="D2">
-        <v>0.03491410462758182</v>
+        <v>0.03491410462757472</v>
       </c>
       <c r="E2">
-        <v>0.03748264833195414</v>
+        <v>0.03748264833192572</v>
       </c>
       <c r="F2">
-        <v>2.323728425339908</v>
+        <v>2.323728425339937</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.769961925937608</v>
+        <v>1.769961925937622</v>
       </c>
       <c r="I2">
-        <v>0.01112121864698956</v>
+        <v>0.01112121864698778</v>
       </c>
       <c r="J2">
-        <v>8.195551348105994</v>
+        <v>8.195551348106022</v>
       </c>
       <c r="K2">
-        <v>0.0257063493716494</v>
+        <v>0.02570634937164762</v>
       </c>
       <c r="L2">
-        <v>4.925753608606414</v>
+        <v>4.925753608606442</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001952929179341645</v>
+        <v>0.001952929179561913</v>
       </c>
       <c r="D3">
-        <v>0.02678989119882402</v>
+        <v>0.02678989119870323</v>
       </c>
       <c r="E3">
-        <v>0.03398807793973191</v>
+        <v>0.03398807793974257</v>
       </c>
       <c r="F3">
         <v>1.975168947882722</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.502554077009677</v>
+        <v>1.502554077009648</v>
       </c>
       <c r="I3">
-        <v>0.01121765782856876</v>
+        <v>0.01121765782854478</v>
       </c>
       <c r="J3">
-        <v>7.035625013172421</v>
+        <v>7.035625013172449</v>
       </c>
       <c r="K3">
-        <v>0.02364805633329858</v>
+        <v>0.02364805633329681</v>
       </c>
       <c r="L3">
-        <v>4.228586208438827</v>
+        <v>4.228586208438799</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001319582876528003</v>
+        <v>0.001319582876517345</v>
       </c>
       <c r="D4">
-        <v>0.02268038531602912</v>
+        <v>0.0226803853161428</v>
       </c>
       <c r="E4">
-        <v>0.03188873195125552</v>
+        <v>0.03188873195124842</v>
       </c>
       <c r="F4">
         <v>1.782471482103318</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.354903235774913</v>
+        <v>1.354903235774927</v>
       </c>
       <c r="I4">
-        <v>0.01140967938147419</v>
+        <v>0.01140967938145288</v>
       </c>
       <c r="J4">
-        <v>6.341115420636129</v>
+        <v>6.341115420636157</v>
       </c>
       <c r="K4">
-        <v>0.02244611075530401</v>
+        <v>0.02244611075528624</v>
       </c>
       <c r="L4">
-        <v>3.811698918115439</v>
+        <v>3.811698918115397</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.001102687883257403</v>
+        <v>0.001102687883475895</v>
       </c>
       <c r="D5">
-        <v>0.02118912515322791</v>
+        <v>0.02118912515310356</v>
       </c>
       <c r="E5">
-        <v>0.031043007670986</v>
+        <v>0.03104300767097357</v>
       </c>
       <c r="F5">
-        <v>1.708450499460724</v>
+        <v>1.708450499460739</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.298227556750092</v>
+        <v>1.298227556750106</v>
       </c>
       <c r="I5">
-        <v>0.01151724177844216</v>
+        <v>0.01151724177846347</v>
       </c>
       <c r="J5">
         <v>6.061643474770449</v>
       </c>
       <c r="K5">
-        <v>0.0219697862371433</v>
+        <v>0.02196978623712376</v>
       </c>
       <c r="L5">
-        <v>3.64406408388902</v>
+        <v>3.644064083888992</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001068934068633176</v>
+        <v>0.001068934068448435</v>
       </c>
       <c r="D6">
-        <v>0.02095161198612061</v>
+        <v>0.02095161198612416</v>
       </c>
       <c r="E6">
-        <v>0.03090311726148087</v>
+        <v>0.03090311726151995</v>
       </c>
       <c r="F6">
-        <v>1.696409255925403</v>
+        <v>1.696409255925374</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.289010336781232</v>
+        <v>1.289010336781217</v>
       </c>
       <c r="I6">
-        <v>0.01153676687583971</v>
+        <v>0.0115367668758406</v>
       </c>
       <c r="J6">
         <v>6.015428094712661</v>
       </c>
       <c r="K6">
-        <v>0.02189145273177751</v>
+        <v>0.02189145273179172</v>
       </c>
       <c r="L6">
-        <v>3.616349771877694</v>
+        <v>3.616349771877708</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001316501400081549</v>
+        <v>0.001316501400309811</v>
       </c>
       <c r="D7">
-        <v>0.02265957565644072</v>
+        <v>0.0226595756563519</v>
       </c>
       <c r="E7">
-        <v>0.03187728888719832</v>
+        <v>0.03187728888723917</v>
       </c>
       <c r="F7">
-        <v>1.78145599091846</v>
+        <v>1.781455990918445</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.35412553764418</v>
+        <v>1.354125537644208</v>
       </c>
       <c r="I7">
-        <v>0.01141101619709772</v>
+        <v>0.01141101619711371</v>
       </c>
       <c r="J7">
         <v>6.33733308480771</v>
       </c>
       <c r="K7">
-        <v>0.02243963479742739</v>
+        <v>0.02243963479743094</v>
       </c>
       <c r="L7">
-        <v>3.809429696084649</v>
+        <v>3.809429696084678</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.002793922753912881</v>
+        <v>0.002793922753941303</v>
       </c>
       <c r="D8">
-        <v>0.03190543341519714</v>
+        <v>0.03190543341521845</v>
       </c>
       <c r="E8">
-        <v>0.0362668694239936</v>
+        <v>0.03626686942396518</v>
       </c>
       <c r="F8">
-        <v>2.198552751523479</v>
+        <v>2.198552751523437</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.673885866612551</v>
+        <v>1.673885866612522</v>
       </c>
       <c r="I8">
-        <v>0.01112420324149888</v>
+        <v>0.01112420324151131</v>
       </c>
       <c r="J8">
-        <v>7.791341156902604</v>
+        <v>7.791341156902575</v>
       </c>
       <c r="K8">
-        <v>0.02498244539923355</v>
+        <v>0.02498244539923533</v>
       </c>
       <c r="L8">
-        <v>4.682680373323848</v>
+        <v>4.682680373323791</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007792857682208165</v>
+        <v>0.007792857682204613</v>
       </c>
       <c r="D9">
-        <v>0.05921494271669303</v>
+        <v>0.05921494271657934</v>
       </c>
       <c r="E9">
-        <v>0.04534860782730021</v>
+        <v>0.04534860782732508</v>
       </c>
       <c r="F9">
-        <v>3.235153090661186</v>
+        <v>3.235153090661157</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.470669293251788</v>
+        <v>2.470669293251774</v>
       </c>
       <c r="I9">
-        <v>0.01185031395988556</v>
+        <v>0.01185031395989622</v>
       </c>
       <c r="J9">
         <v>10.8346996172094</v>
       </c>
       <c r="K9">
-        <v>0.03057705646212483</v>
+        <v>0.03057705646210884</v>
       </c>
       <c r="L9">
-        <v>6.515915243286145</v>
+        <v>6.515915243286116</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01377816755544536</v>
+        <v>0.01377816755570471</v>
       </c>
       <c r="D10">
-        <v>0.08919341098328459</v>
+        <v>0.08919341098361855</v>
       </c>
       <c r="E10">
-        <v>0.05250610472001682</v>
+        <v>0.05250610472000616</v>
       </c>
       <c r="F10">
-        <v>4.225240420439889</v>
+        <v>4.22524042043986</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.233609280943554</v>
+        <v>3.233609280943526</v>
       </c>
       <c r="I10">
-        <v>0.01361496254205896</v>
+        <v>0.01361496254205363</v>
       </c>
       <c r="J10">
-        <v>13.28551415362813</v>
+        <v>13.28551415362807</v>
       </c>
       <c r="K10">
-        <v>0.03527478740913281</v>
+        <v>0.03527478740912926</v>
       </c>
       <c r="L10">
-        <v>7.997199566509067</v>
+        <v>7.997199566508982</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01737976540087693</v>
+        <v>0.01737976540086095</v>
       </c>
       <c r="D11">
-        <v>0.1065465089405819</v>
+        <v>0.1065465089405748</v>
       </c>
       <c r="E11">
-        <v>0.05593290248354421</v>
+        <v>0.05593290248355487</v>
       </c>
       <c r="F11">
-        <v>4.758918649542011</v>
+        <v>4.758918649542096</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.645442165448543</v>
+        <v>3.6454421654486</v>
       </c>
       <c r="I11">
-        <v>0.01483924095872524</v>
+        <v>0.0148392409587137</v>
       </c>
       <c r="J11">
-        <v>14.4808172852197</v>
+        <v>14.48081728521981</v>
       </c>
       <c r="K11">
-        <v>0.03761117508478939</v>
+        <v>0.03761117508477341</v>
       </c>
       <c r="L11">
         <v>8.721223216652902</v>
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01892087768994877</v>
+        <v>0.01892087768990258</v>
       </c>
       <c r="D12">
-        <v>0.1138616839637336</v>
+        <v>0.1138616839640179</v>
       </c>
       <c r="E12">
-        <v>0.05726324581323539</v>
+        <v>0.05726324581327447</v>
       </c>
       <c r="F12">
-        <v>4.977417113770997</v>
+        <v>4.977417113770883</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.814159642597019</v>
+        <v>3.814159642596934</v>
       </c>
       <c r="I12">
-        <v>0.01538331661537207</v>
+        <v>0.01538331661537384</v>
       </c>
       <c r="J12">
-        <v>14.94935291314965</v>
+        <v>14.94935291314954</v>
       </c>
       <c r="K12">
-        <v>0.03853343924644292</v>
+        <v>0.03853343924641095</v>
       </c>
       <c r="L12">
-        <v>9.005309762913129</v>
+        <v>9.005309762913015</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01858000569402307</v>
+        <v>0.0185800056940213</v>
       </c>
       <c r="D13">
-        <v>0.1122487031466619</v>
+        <v>0.112248703146669</v>
       </c>
       <c r="E13">
         <v>0.05697511315128523</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3.777183139922869</v>
+        <v>3.777183139922855</v>
       </c>
       <c r="I13">
-        <v>0.01526215085664262</v>
+        <v>0.01526215085666927</v>
       </c>
       <c r="J13">
-        <v>14.84764829201106</v>
+        <v>14.84764829201097</v>
       </c>
       <c r="K13">
-        <v>0.03833296523857754</v>
+        <v>0.03833296523859353</v>
       </c>
       <c r="L13">
-        <v>8.943629718549175</v>
+        <v>8.94362971854909</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01750262119482926</v>
+        <v>0.01750262119485413</v>
       </c>
       <c r="D14">
-        <v>0.1071318641551144</v>
+        <v>0.10713186415515</v>
       </c>
       <c r="E14">
-        <v>0.05604163715961974</v>
+        <v>0.05604163715961263</v>
       </c>
       <c r="F14">
-        <v>4.776533186984324</v>
+        <v>4.776533186984238</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3.659041363809678</v>
+        <v>3.659041363809607</v>
       </c>
       <c r="I14">
-        <v>0.01488224524220083</v>
+        <v>0.01488224524221948</v>
       </c>
       <c r="J14">
-        <v>14.51901369592298</v>
+        <v>14.51901369592304</v>
       </c>
       <c r="K14">
-        <v>0.03768623514556957</v>
+        <v>0.0376862351455447</v>
       </c>
       <c r="L14">
         <v>8.744376796709332</v>
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0168676996895023</v>
+        <v>0.01686769969018087</v>
       </c>
       <c r="D15">
-        <v>0.1041024291701831</v>
+        <v>0.1041024291701689</v>
       </c>
       <c r="E15">
-        <v>0.05547440958275374</v>
+        <v>0.05547440958275729</v>
       </c>
       <c r="F15">
-        <v>4.685116027692231</v>
+        <v>4.685116027692203</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.588467523865816</v>
+        <v>3.588467523865802</v>
       </c>
       <c r="I15">
-        <v>0.01466075434531522</v>
+        <v>0.01466075434533032</v>
       </c>
       <c r="J15">
-        <v>14.31994665862322</v>
+        <v>14.31994665862317</v>
       </c>
       <c r="K15">
-        <v>0.03729530199572295</v>
+        <v>0.0372953019957567</v>
       </c>
       <c r="L15">
-        <v>8.623719664935038</v>
+        <v>8.623719664935066</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01356432037089483</v>
+        <v>0.01356432037067989</v>
       </c>
       <c r="D16">
-        <v>0.0881499657877427</v>
+        <v>0.08814996578763612</v>
       </c>
       <c r="E16">
-        <v>0.05228621879188111</v>
+        <v>0.05228621879187045</v>
       </c>
       <c r="F16">
-        <v>4.192375739151288</v>
+        <v>4.192375739151373</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.208260539613093</v>
+        <v>3.208260539613164</v>
       </c>
       <c r="I16">
-        <v>0.0135449538531569</v>
+        <v>0.01354495385315602</v>
       </c>
       <c r="J16">
-        <v>13.20934778056562</v>
+        <v>13.20934778056574</v>
       </c>
       <c r="K16">
-        <v>0.03512679542469144</v>
+        <v>0.0351267954247021</v>
       </c>
       <c r="L16">
-        <v>7.951098828935073</v>
+        <v>7.95109882893513</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01179247670723882</v>
+        <v>0.01179247670750883</v>
       </c>
       <c r="D17">
-        <v>0.07943753431005263</v>
+        <v>0.07943753430997447</v>
       </c>
       <c r="E17">
-        <v>0.05037900135089401</v>
+        <v>0.05037900135093309</v>
       </c>
       <c r="F17">
-        <v>3.914028896701382</v>
+        <v>3.914028896701353</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.993631839300292</v>
+        <v>2.993631839300235</v>
       </c>
       <c r="I17">
         <v>0.01298020045994441</v>
       </c>
       <c r="J17">
-        <v>12.55119876600133</v>
+        <v>12.55119876600125</v>
       </c>
       <c r="K17">
-        <v>0.03385290066350066</v>
+        <v>0.03385290066347046</v>
       </c>
       <c r="L17">
-        <v>7.55291967881638</v>
+        <v>7.552919678816352</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01085206960253338</v>
+        <v>0.01085206960252449</v>
       </c>
       <c r="D18">
-        <v>0.07475963819786813</v>
+        <v>0.07475963819783971</v>
       </c>
       <c r="E18">
-        <v>0.04929747729994105</v>
+        <v>0.04929747729996237</v>
       </c>
       <c r="F18">
-        <v>3.761424211585705</v>
+        <v>3.761424211585734</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>2.876009764916503</v>
       </c>
       <c r="I18">
-        <v>0.01269350941625369</v>
+        <v>0.01269350941624481</v>
       </c>
       <c r="J18">
-        <v>12.17988213586497</v>
+        <v>12.17988213586503</v>
       </c>
       <c r="K18">
-        <v>0.03313828103966365</v>
+        <v>0.03313828103965299</v>
       </c>
       <c r="L18">
-        <v>7.328411731030002</v>
+        <v>7.328411731030059</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01054597795978118</v>
+        <v>0.01054597795978474</v>
       </c>
       <c r="D19">
-        <v>0.07322804072732225</v>
+        <v>0.07322804072735067</v>
       </c>
       <c r="E19">
-        <v>0.0489337458250958</v>
+        <v>0.04893374582508514</v>
       </c>
       <c r="F19">
         <v>3.710935512805349</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.837102879603933</v>
+        <v>2.837102879603918</v>
       </c>
       <c r="I19">
-        <v>0.0126025083363368</v>
+        <v>0.01260250833632703</v>
       </c>
       <c r="J19">
-        <v>12.05529773542668</v>
+        <v>12.05529773542665</v>
       </c>
       <c r="K19">
-        <v>0.03289920997274898</v>
+        <v>0.03289920997271878</v>
       </c>
       <c r="L19">
-        <v>7.253107006390906</v>
+        <v>7.253107006390849</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01197264850559243</v>
+        <v>0.01197264850605961</v>
       </c>
       <c r="D20">
-        <v>0.08032926552576924</v>
+        <v>0.08032926552589714</v>
       </c>
       <c r="E20">
-        <v>0.05058037885422806</v>
+        <v>0.05058037885420674</v>
       </c>
       <c r="F20">
-        <v>3.942857665147159</v>
+        <v>3.94285766514713</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.015855963805421</v>
+        <v>3.015855963805407</v>
       </c>
       <c r="I20">
-        <v>0.01303625313590295</v>
+        <v>0.01303625313592427</v>
       </c>
       <c r="J20">
-        <v>12.62048530741831</v>
+        <v>12.62048530741833</v>
       </c>
       <c r="K20">
-        <v>0.03398658253124687</v>
+        <v>0.03398658253126285</v>
       </c>
       <c r="L20">
-        <v>7.594823198767614</v>
+        <v>7.594823198767585</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01781373555717636</v>
+        <v>0.01781373555690813</v>
       </c>
       <c r="D21">
-        <v>0.1086124434086031</v>
+        <v>0.108612443408731</v>
       </c>
       <c r="E21">
-        <v>0.05631485331936403</v>
+        <v>0.05631485331940667</v>
       </c>
       <c r="F21">
-        <v>4.820983384363188</v>
+        <v>4.82098338436316</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.693360588851334</v>
+        <v>3.69336058885132</v>
       </c>
       <c r="I21">
-        <v>0.01499144778513362</v>
+        <v>0.01499144778511763</v>
       </c>
       <c r="J21">
-        <v>14.61506608351991</v>
+        <v>14.61506608351985</v>
       </c>
       <c r="K21">
         <v>0.03787508918926541</v>
       </c>
       <c r="L21">
-        <v>8.802605725907483</v>
+        <v>8.802605725907398</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0227093856442</v>
+        <v>0.02270938564410763</v>
       </c>
       <c r="D22">
-        <v>0.1316170045023455</v>
+        <v>0.1316170045030276</v>
       </c>
       <c r="E22">
-        <v>0.06025977128652826</v>
+        <v>0.06025977128650695</v>
       </c>
       <c r="F22">
-        <v>5.494321439693692</v>
+        <v>5.494321439693806</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.213521400058852</v>
+        <v>4.213521400058937</v>
       </c>
       <c r="I22">
-        <v>0.01675484139000183</v>
+        <v>0.01675484138996897</v>
       </c>
       <c r="J22">
-        <v>16.01495480763009</v>
+        <v>16.0149548076302</v>
       </c>
       <c r="K22">
-        <v>0.04064220462245061</v>
+        <v>0.04064220462244528</v>
       </c>
       <c r="L22">
-        <v>9.652014627489308</v>
+        <v>9.652014627489251</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01997368031711666</v>
+        <v>0.01997368031710423</v>
       </c>
       <c r="D23">
-        <v>0.1188264489241249</v>
+        <v>0.1188264489240183</v>
       </c>
       <c r="E23">
-        <v>0.05813260641500761</v>
+        <v>0.05813260641497919</v>
       </c>
       <c r="F23">
         <v>5.123783293208731</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.927211133235531</v>
+        <v>3.927211133235573</v>
       </c>
       <c r="I23">
-        <v>0.01576016746310671</v>
+        <v>0.01576016746308806</v>
       </c>
       <c r="J23">
-        <v>15.25700164327634</v>
+        <v>15.25700164327623</v>
       </c>
       <c r="K23">
-        <v>0.03914074932995604</v>
+        <v>0.03914074932996492</v>
       </c>
       <c r="L23">
-        <v>9.191933329829169</v>
+        <v>9.191933329829197</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01189095256667549</v>
+        <v>0.01189095256666128</v>
       </c>
       <c r="D24">
-        <v>0.0799250971401122</v>
+        <v>0.07992509714021878</v>
       </c>
       <c r="E24">
-        <v>0.05048929004944469</v>
+        <v>0.0504892900494518</v>
       </c>
       <c r="F24">
-        <v>3.929801368509089</v>
+        <v>3.929801368509175</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.00579069845999</v>
+        <v>3.005790698460046</v>
       </c>
       <c r="I24">
-        <v>0.01301079474859002</v>
+        <v>0.01301079474856337</v>
       </c>
       <c r="J24">
-        <v>12.58913916384975</v>
+        <v>12.58913916384984</v>
       </c>
       <c r="K24">
-        <v>0.03392609025869042</v>
+        <v>0.03392609025869575</v>
       </c>
       <c r="L24">
-        <v>7.57586506517498</v>
+        <v>7.575865065175009</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.00612891575709007</v>
+        <v>0.006128915756871578</v>
       </c>
       <c r="D25">
-        <v>0.0504801484733477</v>
+        <v>0.05048014847359639</v>
       </c>
       <c r="E25">
-        <v>0.04282386909525293</v>
+        <v>0.04282386909528846</v>
       </c>
       <c r="F25">
-        <v>2.923200095089612</v>
+        <v>2.923200095089584</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.230634905881473</v>
+        <v>2.230634905881431</v>
       </c>
       <c r="I25">
-        <v>0.01147763897642395</v>
+        <v>0.01147763897642307</v>
       </c>
       <c r="J25">
-        <v>9.982404225104432</v>
+        <v>9.982404225104489</v>
       </c>
       <c r="K25">
-        <v>0.02897950153745654</v>
+        <v>0.02897950153745121</v>
       </c>
       <c r="L25">
-        <v>6.001809935759184</v>
+        <v>6.001809935759212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003308561839592272</v>
+        <v>0.002465395163250506</v>
       </c>
       <c r="D2">
-        <v>0.03491410462757472</v>
+        <v>0.03291288364695077</v>
       </c>
       <c r="E2">
-        <v>0.03748264833192572</v>
+        <v>0.03644348950728826</v>
       </c>
       <c r="F2">
-        <v>2.323728425339937</v>
+        <v>2.309607983206007</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007223763543053422</v>
       </c>
       <c r="H2">
-        <v>1.769961925937622</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01112121864698778</v>
+        <v>1.758596437596012</v>
       </c>
       <c r="J2">
-        <v>8.195551348106022</v>
+        <v>0.01100737049935585</v>
       </c>
       <c r="K2">
-        <v>0.02570634937164762</v>
+        <v>8.15189288002594</v>
       </c>
       <c r="L2">
-        <v>4.925753608606442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.02529143711755921</v>
+      </c>
+      <c r="M2">
+        <v>4.901146484124126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001952929179561913</v>
+        <v>0.001349163624717598</v>
       </c>
       <c r="D3">
-        <v>0.02678989119870323</v>
+        <v>0.02553255269427268</v>
       </c>
       <c r="E3">
-        <v>0.03398807793974257</v>
+        <v>0.03290648405694618</v>
       </c>
       <c r="F3">
-        <v>1.975168947882722</v>
+        <v>1.971447173559795</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007397656240631474</v>
       </c>
       <c r="H3">
-        <v>1.502554077009648</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01121765782854478</v>
+        <v>1.499353700994689</v>
       </c>
       <c r="J3">
-        <v>7.035625013172449</v>
+        <v>0.01107984008929819</v>
       </c>
       <c r="K3">
-        <v>0.02364805633329681</v>
+        <v>6.999922532651482</v>
       </c>
       <c r="L3">
-        <v>4.228586208438799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.02319714098850945</v>
+      </c>
+      <c r="M3">
+        <v>4.20883433553746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001319582876517345</v>
+        <v>0.0008599805083182588</v>
       </c>
       <c r="D4">
-        <v>0.0226803853161428</v>
+        <v>0.02186827644022671</v>
       </c>
       <c r="E4">
-        <v>0.03188873195124842</v>
+        <v>0.03077968780349494</v>
       </c>
       <c r="F4">
-        <v>1.782471482103318</v>
+        <v>1.784886361030715</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007504872743062556</v>
       </c>
       <c r="H4">
-        <v>1.354903235774927</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01140967938145288</v>
+        <v>1.356522875334363</v>
       </c>
       <c r="J4">
-        <v>6.341115420636157</v>
+        <v>0.0112559356514419</v>
       </c>
       <c r="K4">
-        <v>0.02244611075528624</v>
+        <v>6.310050396025616</v>
       </c>
       <c r="L4">
-        <v>3.811698918115397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.02197227215093989</v>
+      </c>
+      <c r="M4">
+        <v>3.794774029018484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.001102687883475895</v>
+        <v>0.0007014281771535735</v>
       </c>
       <c r="D5">
-        <v>0.02118912515310356</v>
+        <v>0.02055667273098294</v>
       </c>
       <c r="E5">
-        <v>0.03104300767097357</v>
+        <v>0.0299224481978726</v>
       </c>
       <c r="F5">
-        <v>1.708450499460739</v>
+        <v>1.713323465943205</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007548793439261514</v>
       </c>
       <c r="H5">
-        <v>1.298227556750106</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01151724177846347</v>
+        <v>1.301778213848237</v>
       </c>
       <c r="J5">
-        <v>6.061643474770449</v>
+        <v>0.01135674810730603</v>
       </c>
       <c r="K5">
-        <v>0.02196978623712376</v>
+        <v>6.032422452238364</v>
       </c>
       <c r="L5">
-        <v>3.644064083888992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.0214864087314659</v>
+      </c>
+      <c r="M5">
+        <v>3.62826258815133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.001068934068448435</v>
+        <v>0.0006773453405717333</v>
       </c>
       <c r="D6">
-        <v>0.02095161198612416</v>
+        <v>0.02034891190885091</v>
       </c>
       <c r="E6">
-        <v>0.03090311726151995</v>
+        <v>0.0297806263177911</v>
       </c>
       <c r="F6">
-        <v>1.696409255925374</v>
+        <v>1.701688302264984</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007556103322237252</v>
       </c>
       <c r="H6">
-        <v>1.289010336781217</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0115367668758406</v>
+        <v>1.292880018969484</v>
       </c>
       <c r="J6">
-        <v>6.015428094712661</v>
+        <v>0.01137513773580157</v>
       </c>
       <c r="K6">
-        <v>0.02189145273179172</v>
+        <v>5.986510909407571</v>
       </c>
       <c r="L6">
-        <v>3.616349771877708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.02140647954384711</v>
+      </c>
+      <c r="M6">
+        <v>3.600733337367444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001316501400309811</v>
+        <v>0.0008576871457028901</v>
       </c>
       <c r="D7">
-        <v>0.0226595756563519</v>
+        <v>0.02184989559801664</v>
       </c>
       <c r="E7">
-        <v>0.03187728888723917</v>
+        <v>0.03076809074822684</v>
       </c>
       <c r="F7">
-        <v>1.781455990918445</v>
+        <v>1.783904170375067</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007505464005788109</v>
       </c>
       <c r="H7">
-        <v>1.354125537644208</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01141101619711371</v>
+        <v>1.355771336098172</v>
       </c>
       <c r="J7">
-        <v>6.33733308480771</v>
+        <v>0.01125718243851725</v>
       </c>
       <c r="K7">
-        <v>0.02243963479743094</v>
+        <v>6.306293095584238</v>
       </c>
       <c r="L7">
-        <v>3.809429696084678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.02196566833953106</v>
+      </c>
+      <c r="M7">
+        <v>3.792520061716559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.002793922753941303</v>
+        <v>0.002034097691215209</v>
       </c>
       <c r="D8">
-        <v>0.03190543341521845</v>
+        <v>0.03016385623497797</v>
       </c>
       <c r="E8">
-        <v>0.03626686942396518</v>
+        <v>0.03521338373817606</v>
       </c>
       <c r="F8">
-        <v>2.198552751523437</v>
+        <v>2.188082786814888</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007283706552929647</v>
       </c>
       <c r="H8">
-        <v>1.673885866612522</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01112420324151131</v>
+        <v>1.665386414971195</v>
       </c>
       <c r="J8">
-        <v>7.791341156902575</v>
+        <v>0.0110023720393011</v>
       </c>
       <c r="K8">
-        <v>0.02498244539923533</v>
+        <v>7.750488570851701</v>
       </c>
       <c r="L8">
-        <v>4.682680373323791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.02455529489714436</v>
+      </c>
+      <c r="M8">
+        <v>4.659786288808832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007792857682204613</v>
+        <v>0.006401144528889624</v>
       </c>
       <c r="D9">
-        <v>0.05921494271657934</v>
+        <v>0.05548424811518515</v>
       </c>
       <c r="E9">
-        <v>0.04534860782732508</v>
+        <v>0.0443918365551319</v>
       </c>
       <c r="F9">
-        <v>3.235153090661157</v>
+        <v>3.196131899711389</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006845671516029666</v>
       </c>
       <c r="H9">
-        <v>2.470669293251774</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01185031395989622</v>
+        <v>2.4397630612809</v>
       </c>
       <c r="J9">
-        <v>10.8346996172094</v>
+        <v>0.01177867756879358</v>
       </c>
       <c r="K9">
-        <v>0.03057705646210884</v>
+        <v>10.77159318229329</v>
       </c>
       <c r="L9">
-        <v>6.515915243286116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.03023459246778515</v>
+      </c>
+      <c r="M9">
+        <v>6.479416537679583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01377816755570471</v>
+        <v>0.01185581153099413</v>
       </c>
       <c r="D10">
-        <v>0.08919341098361855</v>
+        <v>0.08375085550393635</v>
       </c>
       <c r="E10">
-        <v>0.05250610472000616</v>
+        <v>0.05160931100675015</v>
       </c>
       <c r="F10">
-        <v>4.22524042043986</v>
+        <v>4.160559332894906</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006509193900575237</v>
       </c>
       <c r="H10">
-        <v>3.233609280943526</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01361496254205363</v>
+        <v>3.182581104638913</v>
       </c>
       <c r="J10">
-        <v>13.28551415362807</v>
+        <v>0.01356558693777199</v>
       </c>
       <c r="K10">
-        <v>0.03527478740912926</v>
+        <v>13.20192918885471</v>
       </c>
       <c r="L10">
-        <v>7.997199566508982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.03498850683221733</v>
+      </c>
+      <c r="M10">
+        <v>7.948150307483303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01737976540086095</v>
+        <v>0.01518474568881167</v>
       </c>
       <c r="D11">
-        <v>0.1065465089405748</v>
+        <v>0.1002077940716788</v>
       </c>
       <c r="E11">
-        <v>0.05593290248355487</v>
+        <v>0.05505945158190428</v>
       </c>
       <c r="F11">
-        <v>4.758918649542096</v>
+        <v>4.680408928528095</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006348526141688413</v>
       </c>
       <c r="H11">
-        <v>3.6454421654486</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0148392409587137</v>
+        <v>3.583574970968158</v>
       </c>
       <c r="J11">
-        <v>14.48081728521981</v>
+        <v>0.01479368862748665</v>
       </c>
       <c r="K11">
-        <v>0.03761117508477341</v>
+        <v>14.38605589038985</v>
       </c>
       <c r="L11">
-        <v>8.721223216652902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.03734829762948166</v>
+      </c>
+      <c r="M11">
+        <v>8.665313741299343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01892087768990258</v>
+        <v>0.01661556707742129</v>
       </c>
       <c r="D12">
-        <v>0.1138616839640179</v>
+        <v>0.1071571432163267</v>
       </c>
       <c r="E12">
-        <v>0.05726324581327447</v>
+        <v>0.05639782275519067</v>
       </c>
       <c r="F12">
-        <v>4.977417113770883</v>
+        <v>4.89318655500503</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006286020217310221</v>
       </c>
       <c r="H12">
-        <v>3.814159642596934</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01538331661537384</v>
+        <v>3.747809308536077</v>
       </c>
       <c r="J12">
-        <v>14.94935291314954</v>
+        <v>0.01533780376849858</v>
       </c>
       <c r="K12">
-        <v>0.03853343924641095</v>
+        <v>14.84994380256055</v>
       </c>
       <c r="L12">
-        <v>9.005309762913015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.038278970931378</v>
+      </c>
+      <c r="M12">
+        <v>8.946545462433733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0185800056940213</v>
+        <v>0.01629881915713582</v>
       </c>
       <c r="D13">
-        <v>0.112248703146669</v>
+        <v>0.1056243458930197</v>
       </c>
       <c r="E13">
-        <v>0.05697511315128523</v>
+        <v>0.05610800294879326</v>
       </c>
       <c r="F13">
-        <v>4.929536956835562</v>
+        <v>4.846564013847114</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006299567900258297</v>
       </c>
       <c r="H13">
-        <v>3.777183139922855</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01526215085666927</v>
+        <v>3.711818294570676</v>
       </c>
       <c r="J13">
-        <v>14.84764829201097</v>
+        <v>0.01521670389004015</v>
       </c>
       <c r="K13">
-        <v>0.03833296523859353</v>
+        <v>14.74926202136206</v>
       </c>
       <c r="L13">
-        <v>8.94362971854909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.03807670944121</v>
+      </c>
+      <c r="M13">
+        <v>8.885493787648556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01750262119485413</v>
+        <v>0.01529868904468223</v>
       </c>
       <c r="D14">
-        <v>0.10713186415515</v>
+        <v>0.1007636594375185</v>
       </c>
       <c r="E14">
-        <v>0.05604163715961263</v>
+        <v>0.0551688649626989</v>
       </c>
       <c r="F14">
-        <v>4.776533186984238</v>
+        <v>4.697563906064858</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006343421280897593</v>
       </c>
       <c r="H14">
-        <v>3.659041363809607</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01488224524221948</v>
+        <v>3.596814016032752</v>
       </c>
       <c r="J14">
-        <v>14.51901369592304</v>
+        <v>0.01483672847124495</v>
       </c>
       <c r="K14">
-        <v>0.0376862351455447</v>
+        <v>14.42387943959486</v>
       </c>
       <c r="L14">
-        <v>8.744376796709332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.03742405978554508</v>
+      </c>
+      <c r="M14">
+        <v>8.688238336239465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01686769969018087</v>
+        <v>0.01471006983928902</v>
       </c>
       <c r="D15">
-        <v>0.1041024291701689</v>
+        <v>0.09788729408367658</v>
       </c>
       <c r="E15">
-        <v>0.05547440958275729</v>
+        <v>0.05459805359697611</v>
       </c>
       <c r="F15">
-        <v>4.685116027692203</v>
+        <v>4.608529045276526</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006370044776301395</v>
       </c>
       <c r="H15">
-        <v>3.588467523865802</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01466075434533032</v>
+        <v>3.52810720015718</v>
       </c>
       <c r="J15">
-        <v>14.31994665862317</v>
+        <v>0.01461499090096385</v>
       </c>
       <c r="K15">
-        <v>0.0372953019957567</v>
+        <v>14.22674430621819</v>
       </c>
       <c r="L15">
-        <v>8.623719664935066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.0370294357655343</v>
+      </c>
+      <c r="M15">
+        <v>8.568767561898227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01356432037067989</v>
+        <v>0.01165896869844296</v>
       </c>
       <c r="D16">
-        <v>0.08814996578763612</v>
+        <v>0.08276291526856738</v>
       </c>
       <c r="E16">
-        <v>0.05228621879187045</v>
+        <v>0.05138780260643472</v>
       </c>
       <c r="F16">
-        <v>4.192375739151373</v>
+        <v>4.128542330630182</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006519497353429911</v>
       </c>
       <c r="H16">
-        <v>3.208260539613164</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01354495385315602</v>
+        <v>3.157896890153168</v>
       </c>
       <c r="J16">
-        <v>13.20934778056574</v>
+        <v>0.01349516545276686</v>
       </c>
       <c r="K16">
-        <v>0.0351267954247021</v>
+        <v>13.12644502944929</v>
       </c>
       <c r="L16">
-        <v>7.95109882893513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.03483893185643439</v>
+      </c>
+      <c r="M16">
+        <v>7.902468090734516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01179247670750883</v>
+        <v>0.01003247926469442</v>
       </c>
       <c r="D17">
-        <v>0.07943753430997447</v>
+        <v>0.07452314782807434</v>
       </c>
       <c r="E17">
-        <v>0.05037900135093309</v>
+        <v>0.04946591030800818</v>
       </c>
       <c r="F17">
-        <v>3.914028896701353</v>
+        <v>3.857371792818327</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006608896644312492</v>
       </c>
       <c r="H17">
-        <v>2.993631839300235</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01298020045994441</v>
+        <v>2.948894492273212</v>
       </c>
       <c r="J17">
-        <v>12.55119876600125</v>
+        <v>0.0129260586387101</v>
       </c>
       <c r="K17">
-        <v>0.03385290066347046</v>
+        <v>12.47405699881764</v>
       </c>
       <c r="L17">
-        <v>7.552919678816352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.03355091503614993</v>
+      </c>
+      <c r="M17">
+        <v>7.507822058344374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01085206960252449</v>
+        <v>0.009172940277901276</v>
       </c>
       <c r="D18">
-        <v>0.07475963819783971</v>
+        <v>0.07010684754801844</v>
       </c>
       <c r="E18">
-        <v>0.04929747729996237</v>
+        <v>0.0483755950036695</v>
       </c>
       <c r="F18">
-        <v>3.761424211585734</v>
+        <v>3.708706101776272</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006659645526044699</v>
       </c>
       <c r="H18">
-        <v>2.876009764916503</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01269350941624481</v>
+        <v>2.834361052449054</v>
       </c>
       <c r="J18">
-        <v>12.17988213586503</v>
+        <v>0.01263631204844895</v>
       </c>
       <c r="K18">
-        <v>0.03313828103965299</v>
+        <v>12.10589093968463</v>
       </c>
       <c r="L18">
-        <v>7.328411731030059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.03282798202074844</v>
+      </c>
+      <c r="M18">
+        <v>7.285245450655935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01054597795978474</v>
+        <v>0.008893815498874247</v>
       </c>
       <c r="D19">
-        <v>0.07322804072735067</v>
+        <v>0.06866226928268304</v>
       </c>
       <c r="E19">
-        <v>0.04893374582508514</v>
+        <v>0.04800883200321593</v>
       </c>
       <c r="F19">
-        <v>3.710935512805349</v>
+        <v>3.659522503056877</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006676726768553155</v>
       </c>
       <c r="H19">
-        <v>2.837102879603918</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01260250833632703</v>
+        <v>2.796477587029528</v>
       </c>
       <c r="J19">
-        <v>12.05529773542665</v>
+        <v>0.01254419242018656</v>
       </c>
       <c r="K19">
-        <v>0.03289920997271878</v>
+        <v>11.98234851320493</v>
       </c>
       <c r="L19">
-        <v>7.253107006390849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.03258606640427431</v>
+      </c>
+      <c r="M19">
+        <v>7.210579332736955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01197264850605961</v>
+        <v>0.01019747501821122</v>
       </c>
       <c r="D20">
-        <v>0.08032926552589714</v>
+        <v>0.07536567849958686</v>
       </c>
       <c r="E20">
-        <v>0.05058037885420674</v>
+        <v>0.04966888758710652</v>
       </c>
       <c r="F20">
-        <v>3.94285766514713</v>
+        <v>3.885457107903278</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006599452813003991</v>
       </c>
       <c r="H20">
-        <v>3.015855963805407</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01303625313592427</v>
+        <v>2.970535695899571</v>
       </c>
       <c r="J20">
-        <v>12.62048530741833</v>
+        <v>0.012982634522265</v>
       </c>
       <c r="K20">
-        <v>0.03398658253126285</v>
+        <v>12.54274795219033</v>
       </c>
       <c r="L20">
-        <v>7.594823198767585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.03368612071527188</v>
+      </c>
+      <c r="M20">
+        <v>7.54936040643895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01781373555690813</v>
+        <v>0.01558733106129928</v>
       </c>
       <c r="D21">
-        <v>0.108612443408731</v>
+        <v>0.1021698251803187</v>
       </c>
       <c r="E21">
-        <v>0.05631485331940667</v>
+        <v>0.0554437689754721</v>
       </c>
       <c r="F21">
-        <v>4.82098338436316</v>
+        <v>4.740853210699726</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000633059147162471</v>
       </c>
       <c r="H21">
-        <v>3.69336058885132</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01499144778511763</v>
+        <v>3.630223473829361</v>
       </c>
       <c r="J21">
-        <v>14.61506608351985</v>
+        <v>0.01494599542833441</v>
       </c>
       <c r="K21">
-        <v>0.03787508918926541</v>
+        <v>14.51898955327397</v>
       </c>
       <c r="L21">
-        <v>8.802605725907398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.03761466650112411</v>
+      </c>
+      <c r="M21">
+        <v>8.745888554409731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02270938564410763</v>
+        <v>0.02014445309668389</v>
       </c>
       <c r="D22">
-        <v>0.1316170045030276</v>
+        <v>0.1240436161285245</v>
       </c>
       <c r="E22">
-        <v>0.06025977128650695</v>
+        <v>0.05941010423872939</v>
       </c>
       <c r="F22">
-        <v>5.494321439693806</v>
+        <v>5.396333544260301</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006144690950796581</v>
       </c>
       <c r="H22">
-        <v>4.213521400058937</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01675484138996897</v>
+        <v>4.136392072834653</v>
       </c>
       <c r="J22">
-        <v>16.0149548076302</v>
+        <v>0.0167059774682663</v>
       </c>
       <c r="K22">
-        <v>0.04064220462244528</v>
+        <v>15.90431784610513</v>
       </c>
       <c r="L22">
-        <v>9.652014627489251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.0404051484977952</v>
+      </c>
+      <c r="M22">
+        <v>9.586349132233408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01997368031710423</v>
+        <v>0.01759474041932663</v>
       </c>
       <c r="D23">
-        <v>0.1188264489240183</v>
+        <v>0.1118766027926412</v>
       </c>
       <c r="E23">
-        <v>0.05813260641497919</v>
+        <v>0.05727209618849116</v>
       </c>
       <c r="F23">
-        <v>5.123783293208731</v>
+        <v>5.035692562107016</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006245105012122841</v>
       </c>
       <c r="H23">
-        <v>3.927211133235573</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01576016746308806</v>
+        <v>3.857836050446068</v>
       </c>
       <c r="J23">
-        <v>15.25700164327623</v>
+        <v>0.015714195301058</v>
       </c>
       <c r="K23">
-        <v>0.03914074932996492</v>
+        <v>15.15444915018892</v>
       </c>
       <c r="L23">
-        <v>9.191933329829197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.03889155758419172</v>
+      </c>
+      <c r="M23">
+        <v>9.131237590579786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01189095256666128</v>
+        <v>0.01012264840536403</v>
       </c>
       <c r="D24">
-        <v>0.07992509714021878</v>
+        <v>0.07498378465169964</v>
       </c>
       <c r="E24">
-        <v>0.0504892900494518</v>
+        <v>0.04957707661199962</v>
       </c>
       <c r="F24">
-        <v>3.929801368509175</v>
+        <v>3.872737496850135</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006603724348692191</v>
       </c>
       <c r="H24">
-        <v>3.005790698460046</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01301079474856337</v>
+        <v>2.960734414935573</v>
       </c>
       <c r="J24">
-        <v>12.58913916384984</v>
+        <v>0.01295694128192615</v>
       </c>
       <c r="K24">
-        <v>0.03392609025869575</v>
+        <v>12.5116715673345</v>
       </c>
       <c r="L24">
-        <v>7.575865065175009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.0336249401240174</v>
+      </c>
+      <c r="M24">
+        <v>7.530567672218837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.006128915756871578</v>
+        <v>0.004915876684004061</v>
       </c>
       <c r="D25">
-        <v>0.05048014847359639</v>
+        <v>0.04731694085848659</v>
       </c>
       <c r="E25">
-        <v>0.04282386909528846</v>
+        <v>0.04184253735609467</v>
       </c>
       <c r="F25">
-        <v>2.923200095089584</v>
+        <v>2.892462624738357</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006965604416749884</v>
       </c>
       <c r="H25">
-        <v>2.230634905881431</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01147763897642307</v>
+        <v>2.206227600421329</v>
       </c>
       <c r="J25">
-        <v>9.982404225104489</v>
+        <v>0.01139429686044835</v>
       </c>
       <c r="K25">
-        <v>0.02897950153745121</v>
+        <v>9.925821304235228</v>
       </c>
       <c r="L25">
-        <v>6.001809935759212</v>
+        <v>0.02861500984291077</v>
+      </c>
+      <c r="M25">
+        <v>5.96930336031167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002465395163250506</v>
+        <v>0.1462903792941006</v>
       </c>
       <c r="D2">
-        <v>0.03291288364695077</v>
+        <v>0.105475708485244</v>
       </c>
       <c r="E2">
-        <v>0.03644348950728826</v>
+        <v>0.02214816989077306</v>
       </c>
       <c r="F2">
-        <v>2.309607983206007</v>
+        <v>3.770159483660933</v>
       </c>
       <c r="G2">
-        <v>0.0007223763543053422</v>
+        <v>0.0007522597957130538</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.758596437596012</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01100737049935585</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.15189288002594</v>
+        <v>4.606807427153313</v>
       </c>
       <c r="L2">
-        <v>0.02529143711755921</v>
+        <v>0.02933741549060542</v>
       </c>
       <c r="M2">
-        <v>4.901146484124126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>3.233011837055273</v>
+      </c>
+      <c r="N2">
+        <v>0.8357501883981797</v>
+      </c>
+      <c r="O2">
+        <v>3.173729716376272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001349163624717598</v>
+        <v>0.1360449262258925</v>
       </c>
       <c r="D3">
-        <v>0.02553255269427268</v>
+        <v>0.0970452628693721</v>
       </c>
       <c r="E3">
-        <v>0.03290648405694618</v>
+        <v>0.02322543372954655</v>
       </c>
       <c r="F3">
-        <v>1.971447173559795</v>
+        <v>3.296878969547464</v>
       </c>
       <c r="G3">
-        <v>0.0007397656240631474</v>
+        <v>0.0007676095763135029</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.499353700994689</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01107984008929819</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.999922532651482</v>
+        <v>3.962985671082151</v>
       </c>
       <c r="L3">
-        <v>0.02319714098850945</v>
+        <v>0.02866215971168984</v>
       </c>
       <c r="M3">
-        <v>4.20883433553746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.788998092066848</v>
+      </c>
+      <c r="N3">
+        <v>0.8503485047457104</v>
+      </c>
+      <c r="O3">
+        <v>2.781651612023666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0008599805083182588</v>
+        <v>0.1302615730399026</v>
       </c>
       <c r="D4">
-        <v>0.02186827644022671</v>
+        <v>0.09256192115962136</v>
       </c>
       <c r="E4">
-        <v>0.03077968780349494</v>
+        <v>0.02394279037396352</v>
       </c>
       <c r="F4">
-        <v>1.784886361030715</v>
+        <v>3.022602242950114</v>
       </c>
       <c r="G4">
-        <v>0.0007504872743062556</v>
+        <v>0.0007771478412677232</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.356522875334363</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0112559356514419</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.310050396025616</v>
+        <v>3.577506594616437</v>
       </c>
       <c r="L4">
-        <v>0.02197227215093989</v>
+        <v>0.02825543485711179</v>
       </c>
       <c r="M4">
-        <v>3.794774029018484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.523780629258198</v>
+      </c>
+      <c r="N4">
+        <v>0.8609086172591986</v>
+      </c>
+      <c r="O4">
+        <v>2.555063252995566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0007014281771535735</v>
+        <v>0.1280169692121547</v>
       </c>
       <c r="D5">
-        <v>0.02055667273098294</v>
+        <v>0.09088539780541538</v>
       </c>
       <c r="E5">
-        <v>0.0299224481978726</v>
+        <v>0.0242483504529627</v>
       </c>
       <c r="F5">
-        <v>1.713323465943205</v>
+        <v>2.914332883057256</v>
       </c>
       <c r="G5">
-        <v>0.0007548793439261514</v>
+        <v>0.0007810708853514681</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.301778213848237</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01135674810730603</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.032422452238364</v>
+        <v>3.422461306386168</v>
       </c>
       <c r="L5">
-        <v>0.0214864087314659</v>
+        <v>0.0280915557286896</v>
       </c>
       <c r="M5">
-        <v>3.62826258815133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.417251744528102</v>
+      </c>
+      <c r="N5">
+        <v>0.8655910284326467</v>
+      </c>
+      <c r="O5">
+        <v>2.465764634377578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0006773453405717333</v>
+        <v>0.1276506193510301</v>
       </c>
       <c r="D6">
-        <v>0.02034891190885091</v>
+        <v>0.09061547398917469</v>
       </c>
       <c r="E6">
-        <v>0.0297806263177911</v>
+        <v>0.02429986557436292</v>
       </c>
       <c r="F6">
-        <v>1.701688302264984</v>
+        <v>2.896550295060393</v>
       </c>
       <c r="G6">
-        <v>0.0007556103322237252</v>
+        <v>0.0007817246872353383</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.292880018969484</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01137513773580157</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.986510909407571</v>
+        <v>3.396827983912658</v>
       </c>
       <c r="L6">
-        <v>0.02140647954384711</v>
+        <v>0.0280644533408374</v>
       </c>
       <c r="M6">
-        <v>3.600733337367444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.39964798072721</v>
+      </c>
+      <c r="N6">
+        <v>0.8663908348024449</v>
+      </c>
+      <c r="O6">
+        <v>2.451106384951942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0008576871457028901</v>
+        <v>0.1302308661709048</v>
       </c>
       <c r="D7">
-        <v>0.02184989559801664</v>
+        <v>0.09253873048766081</v>
       </c>
       <c r="E7">
-        <v>0.03076809074822684</v>
+        <v>0.02394685870076829</v>
       </c>
       <c r="F7">
-        <v>1.783904170375067</v>
+        <v>3.021128643438345</v>
       </c>
       <c r="G7">
-        <v>0.0007505464005788109</v>
+        <v>0.0007772005933936177</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.355771336098172</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01125718243851725</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.306293095584238</v>
+        <v>3.575407861340267</v>
       </c>
       <c r="L7">
-        <v>0.02196566833953106</v>
+        <v>0.0282532173148109</v>
       </c>
       <c r="M7">
-        <v>3.792520061716559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.522338051065788</v>
+      </c>
+      <c r="N7">
+        <v>0.8609702584951862</v>
+      </c>
+      <c r="O7">
+        <v>2.55384727168186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.002034097691215209</v>
+        <v>0.1426423964776404</v>
       </c>
       <c r="D8">
-        <v>0.03016385623497797</v>
+        <v>0.1024095077589351</v>
       </c>
       <c r="E8">
-        <v>0.03521338373817606</v>
+        <v>0.02250746863930075</v>
       </c>
       <c r="F8">
-        <v>2.188082786814888</v>
+        <v>3.603192415174675</v>
       </c>
       <c r="G8">
-        <v>0.0007283706552929647</v>
+        <v>0.0007575337990000787</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.665386414971195</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0110023720393011</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7.750488570851701</v>
+        <v>4.382496263307161</v>
       </c>
       <c r="L8">
-        <v>0.02455529489714436</v>
+        <v>0.02910287105480691</v>
       </c>
       <c r="M8">
-        <v>4.659786288808832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3.078173782062592</v>
+      </c>
+      <c r="N8">
+        <v>0.8404378235595971</v>
+      </c>
+      <c r="O8">
+        <v>3.035265708892766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.006401144528889624</v>
+        <v>0.1718533850677773</v>
       </c>
       <c r="D9">
-        <v>0.05548424811518515</v>
+        <v>0.1285860772622698</v>
       </c>
       <c r="E9">
-        <v>0.0443918365551319</v>
+        <v>0.0201734555008537</v>
       </c>
       <c r="F9">
-        <v>3.196131899711389</v>
+        <v>4.907275756404516</v>
       </c>
       <c r="G9">
-        <v>0.0006845671516029666</v>
+        <v>0.000719450713415054</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.4397630612809</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01177867756879358</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10.77159318229329</v>
+        <v>6.066972190364652</v>
       </c>
       <c r="L9">
-        <v>0.03023459246778515</v>
+        <v>0.03083876928668872</v>
       </c>
       <c r="M9">
-        <v>6.479416537679583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4.244233320739752</v>
+      </c>
+      <c r="N9">
+        <v>0.8140413475150439</v>
+      </c>
+      <c r="O9">
+        <v>4.120212168280233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01185581153099413</v>
+        <v>0.197786819726204</v>
       </c>
       <c r="D10">
-        <v>0.08375085550393635</v>
+        <v>0.1543632870755829</v>
       </c>
       <c r="E10">
-        <v>0.05160931100675015</v>
+        <v>0.01883566627882516</v>
       </c>
       <c r="F10">
-        <v>4.160559332894906</v>
+        <v>6.023691411813729</v>
       </c>
       <c r="G10">
-        <v>0.0006509193900575237</v>
+        <v>0.0006910253868813374</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.182581104638913</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01356558693777199</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>13.20192918885471</v>
+        <v>7.40906280065613</v>
       </c>
       <c r="L10">
-        <v>0.03498850683221733</v>
+        <v>0.03217085349662696</v>
       </c>
       <c r="M10">
-        <v>7.948150307483303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5.178147233986522</v>
+      </c>
+      <c r="N10">
+        <v>0.8051501374645369</v>
+      </c>
+      <c r="O10">
+        <v>5.054281564941988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01518474568881167</v>
+        <v>0.2110256572488396</v>
       </c>
       <c r="D11">
-        <v>0.1002077940716788</v>
+        <v>0.1682767328904902</v>
       </c>
       <c r="E11">
-        <v>0.05505945158190428</v>
+        <v>0.01833348467680729</v>
       </c>
       <c r="F11">
-        <v>4.680408928528095</v>
+        <v>6.5845724185221</v>
       </c>
       <c r="G11">
-        <v>0.0006348526141688413</v>
+        <v>0.0006777650429495078</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.583574970968158</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01479368862748665</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>14.38605589038985</v>
+        <v>8.055669540227768</v>
       </c>
       <c r="L11">
-        <v>0.03734829762948166</v>
+        <v>0.03279420857052173</v>
       </c>
       <c r="M11">
-        <v>8.665313741299343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.629472497894085</v>
+      </c>
+      <c r="N11">
+        <v>0.8039924593713721</v>
+      </c>
+      <c r="O11">
+        <v>5.525050369636062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01661556707742129</v>
+        <v>0.2163009150232398</v>
       </c>
       <c r="D12">
-        <v>0.1071571432163267</v>
+        <v>0.1739510214322451</v>
       </c>
       <c r="E12">
-        <v>0.05639782275519067</v>
+        <v>0.01816146493052084</v>
       </c>
       <c r="F12">
-        <v>4.89318655500503</v>
+        <v>6.806768924326661</v>
       </c>
       <c r="G12">
-        <v>0.0006286020217310221</v>
+        <v>0.0006726691915844706</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.747809308536077</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01533780376849858</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>14.84994380256055</v>
+        <v>8.30727464214786</v>
       </c>
       <c r="L12">
-        <v>0.038278970931378</v>
+        <v>0.03303340334419858</v>
       </c>
       <c r="M12">
-        <v>8.946545462433733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.805319876115476</v>
+      </c>
+      <c r="N12">
+        <v>0.8040365348070537</v>
+      </c>
+      <c r="O12">
+        <v>5.711800189083561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01629881915713582</v>
+        <v>0.215152079917857</v>
       </c>
       <c r="D13">
-        <v>0.1056243458930197</v>
+        <v>0.1727091371968612</v>
       </c>
       <c r="E13">
-        <v>0.05610800294879326</v>
+        <v>0.01819765042904464</v>
       </c>
       <c r="F13">
-        <v>4.846564013847114</v>
+        <v>6.758436509861752</v>
       </c>
       <c r="G13">
-        <v>0.0006299567900258297</v>
+        <v>0.0006737705121304728</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.711818294570676</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01521670389004015</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>14.74926202136206</v>
+        <v>8.252756432093918</v>
       </c>
       <c r="L13">
-        <v>0.03807670944121</v>
+        <v>0.03298173542951233</v>
       </c>
       <c r="M13">
-        <v>8.885493787648556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.767206245722036</v>
+      </c>
+      <c r="N13">
+        <v>0.8040043144533797</v>
+      </c>
+      <c r="O13">
+        <v>5.671166390928903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01529868904468223</v>
+        <v>0.2114540292904366</v>
       </c>
       <c r="D14">
-        <v>0.1007636594375185</v>
+        <v>0.1687347998907143</v>
       </c>
       <c r="E14">
-        <v>0.0551688649626989</v>
+        <v>0.01831894936691292</v>
       </c>
       <c r="F14">
-        <v>4.697563906064858</v>
+        <v>6.602641176411765</v>
       </c>
       <c r="G14">
-        <v>0.0006343421280897593</v>
+        <v>0.0006773474825736868</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.596814016032752</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01483672847124495</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>14.42387943959486</v>
+        <v>8.076223229375472</v>
       </c>
       <c r="L14">
-        <v>0.03742405978554508</v>
+        <v>0.03281381960514196</v>
       </c>
       <c r="M14">
-        <v>8.688238336239465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.643832760123587</v>
+      </c>
+      <c r="N14">
+        <v>0.8039859655036281</v>
+      </c>
+      <c r="O14">
+        <v>5.540231439650285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01471006983928902</v>
+        <v>0.2092249037591358</v>
       </c>
       <c r="D15">
-        <v>0.09788729408367658</v>
+        <v>0.1663564421987047</v>
       </c>
       <c r="E15">
-        <v>0.05459805359697611</v>
+        <v>0.01839571098267445</v>
       </c>
       <c r="F15">
-        <v>4.608529045276526</v>
+        <v>6.508565277668595</v>
       </c>
       <c r="G15">
-        <v>0.0006370044776301395</v>
+        <v>0.0006795278342246469</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.52810720015718</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01461499090096385</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>14.22674430621819</v>
+        <v>7.969025329843959</v>
       </c>
       <c r="L15">
-        <v>0.0370294357655343</v>
+        <v>0.03271139938347645</v>
       </c>
       <c r="M15">
-        <v>8.568767561898227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.56894608487724</v>
+      </c>
+      <c r="N15">
+        <v>0.8040398621247533</v>
+      </c>
+      <c r="O15">
+        <v>5.461200650350349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01165896869844296</v>
+        <v>0.1969549432153173</v>
       </c>
       <c r="D16">
-        <v>0.08276291526856738</v>
+        <v>0.1535051513252768</v>
       </c>
       <c r="E16">
-        <v>0.05138780260643472</v>
+        <v>0.01887085031038183</v>
       </c>
       <c r="F16">
-        <v>4.128542330630182</v>
+        <v>5.988274598882612</v>
       </c>
       <c r="G16">
-        <v>0.0006519497353429911</v>
+        <v>0.0006918832239072175</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.157896890153168</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01349516545276686</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>13.12644502944929</v>
+        <v>7.367654232080838</v>
       </c>
       <c r="L16">
-        <v>0.03483893185643439</v>
+        <v>0.03213051493474239</v>
       </c>
       <c r="M16">
-        <v>7.902468090734516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5.149273945669194</v>
+      </c>
+      <c r="N16">
+        <v>0.8052892527112192</v>
+      </c>
+      <c r="O16">
+        <v>5.02458660002506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01003247926469442</v>
+        <v>0.18983093672</v>
       </c>
       <c r="D17">
-        <v>0.07452314782807434</v>
+        <v>0.1462376144323088</v>
       </c>
       <c r="E17">
-        <v>0.04946591030800818</v>
+        <v>0.0191913563445123</v>
       </c>
       <c r="F17">
-        <v>3.857371792818327</v>
+        <v>5.684023244226466</v>
       </c>
       <c r="G17">
-        <v>0.0006608896644312492</v>
+        <v>0.0006993616727770757</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.948894492273212</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0129260586387101</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>12.47405699881764</v>
+        <v>7.008941774036913</v>
       </c>
       <c r="L17">
-        <v>0.03355091503614993</v>
+        <v>0.03177899675454654</v>
       </c>
       <c r="M17">
-        <v>7.507822058344374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.899303727656729</v>
+      </c>
+      <c r="N17">
+        <v>0.8068378476620239</v>
+      </c>
+      <c r="O17">
+        <v>4.769651519476383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.009172940277901276</v>
+        <v>0.1858650253905552</v>
       </c>
       <c r="D18">
-        <v>0.07010684754801844</v>
+        <v>0.1422565724408145</v>
       </c>
       <c r="E18">
-        <v>0.0483755950036695</v>
+        <v>0.01938550591200006</v>
       </c>
       <c r="F18">
-        <v>3.708706101776272</v>
+        <v>5.513854023985715</v>
       </c>
       <c r="G18">
-        <v>0.0006659645526044699</v>
+        <v>0.0007036340754926954</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.834361052449054</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01263631204844895</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.10589093968463</v>
+        <v>6.805900023843378</v>
       </c>
       <c r="L18">
-        <v>0.03282798202074844</v>
+        <v>0.03157839894609538</v>
       </c>
       <c r="M18">
-        <v>7.285245450655935</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.757935964085334</v>
+      </c>
+      <c r="N18">
+        <v>0.8079954208660212</v>
+      </c>
+      <c r="O18">
+        <v>4.627195360642531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.008893815498874247</v>
+        <v>0.1845434337608509</v>
       </c>
       <c r="D19">
-        <v>0.06866226928268304</v>
+        <v>0.1409405262359087</v>
       </c>
       <c r="E19">
-        <v>0.04800883200321593</v>
+        <v>0.0194528515931367</v>
       </c>
       <c r="F19">
-        <v>3.659522503056877</v>
+        <v>5.457010895984723</v>
       </c>
       <c r="G19">
-        <v>0.0006676726768553155</v>
+        <v>0.0007050763519955248</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.796477587029528</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01254419242018656</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>11.98234851320493</v>
+        <v>6.737676851132022</v>
       </c>
       <c r="L19">
-        <v>0.03258606640427431</v>
+        <v>0.03151073668514925</v>
       </c>
       <c r="M19">
-        <v>7.210579332736955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.710455831100333</v>
+      </c>
+      <c r="N19">
+        <v>0.8084314084698292</v>
+      </c>
+      <c r="O19">
+        <v>4.579630915280745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01019747501821122</v>
+        <v>0.1905753320258015</v>
       </c>
       <c r="D20">
-        <v>0.07536567849958686</v>
+        <v>0.1469900870272198</v>
       </c>
       <c r="E20">
-        <v>0.04966888758710652</v>
+        <v>0.01915620537217144</v>
       </c>
       <c r="F20">
-        <v>3.885457107903278</v>
+        <v>5.715897948841302</v>
       </c>
       <c r="G20">
-        <v>0.0006599452813003991</v>
+        <v>0.0006985687508061203</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.970535695899571</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.012982634522265</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>12.54274795219033</v>
+        <v>7.046778045167798</v>
       </c>
       <c r="L20">
-        <v>0.03368612071527188</v>
+        <v>0.03181624843398723</v>
       </c>
       <c r="M20">
-        <v>7.54936040643895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.925657104383006</v>
+      </c>
+      <c r="N20">
+        <v>0.8066449447075428</v>
+      </c>
+      <c r="O20">
+        <v>4.796345784872983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01558733106129928</v>
+        <v>0.2125326028481567</v>
       </c>
       <c r="D21">
-        <v>0.1021698251803187</v>
+        <v>0.1698902725072884</v>
       </c>
       <c r="E21">
-        <v>0.0554437689754721</v>
+        <v>0.01828280135317772</v>
       </c>
       <c r="F21">
-        <v>4.740853210699726</v>
+        <v>6.648115092140387</v>
       </c>
       <c r="G21">
-        <v>0.000633059147162471</v>
+        <v>0.0006762991195143897</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.630223473829361</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01494599542833441</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>14.51898955327397</v>
+        <v>8.1278771763848</v>
       </c>
       <c r="L21">
-        <v>0.03761466650112411</v>
+        <v>0.03286304874871959</v>
       </c>
       <c r="M21">
-        <v>8.745888554409731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.679925613594406</v>
+      </c>
+      <c r="N21">
+        <v>0.8039776338455482</v>
+      </c>
+      <c r="O21">
+        <v>5.578441972233776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02014445309668389</v>
+        <v>0.2284496764218602</v>
       </c>
       <c r="D22">
-        <v>0.1240436161285245</v>
+        <v>0.1872883499954412</v>
       </c>
       <c r="E22">
-        <v>0.05941010423872939</v>
+        <v>0.01781978875872614</v>
       </c>
       <c r="F22">
-        <v>5.396333544260301</v>
+        <v>7.316101440270131</v>
       </c>
       <c r="G22">
-        <v>0.0006144690950796581</v>
+        <v>0.0006612909762366551</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.136392072834653</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0167059774682663</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>15.90431784610513</v>
+        <v>8.874914710182992</v>
       </c>
       <c r="L22">
-        <v>0.0404051484977952</v>
+        <v>0.03356604195054658</v>
       </c>
       <c r="M22">
-        <v>9.586349132233408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6.202504034554948</v>
+      </c>
+      <c r="N22">
+        <v>0.8050924593977413</v>
+      </c>
+      <c r="O22">
+        <v>6.140390959461627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01759474041932663</v>
+        <v>0.2197880341012279</v>
       </c>
       <c r="D23">
-        <v>0.1118766027926412</v>
+        <v>0.17774128539034</v>
       </c>
       <c r="E23">
-        <v>0.05727209618849116</v>
+        <v>0.01805585025111434</v>
       </c>
       <c r="F23">
-        <v>5.035692562107016</v>
+        <v>6.953289041243437</v>
       </c>
       <c r="G23">
-        <v>0.0006245105012122841</v>
+        <v>0.0006693540569194484</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.857836050446068</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.015714195301058</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>15.15444915018892</v>
+        <v>8.471843079950474</v>
       </c>
       <c r="L23">
-        <v>0.03889155758419172</v>
+        <v>0.03318882539575796</v>
       </c>
       <c r="M23">
-        <v>9.131237590579786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.920405247821861</v>
+      </c>
+      <c r="N23">
+        <v>0.8042085570388338</v>
+      </c>
+      <c r="O23">
+        <v>5.835021336371994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01012264840536403</v>
+        <v>0.1902383905641898</v>
       </c>
       <c r="D24">
-        <v>0.07498378465169964</v>
+        <v>0.146649286473405</v>
       </c>
       <c r="E24">
-        <v>0.04957707661199962</v>
+        <v>0.01917206653507897</v>
       </c>
       <c r="F24">
-        <v>3.872737496850135</v>
+        <v>5.701472757214617</v>
       </c>
       <c r="G24">
-        <v>0.0006603724348692191</v>
+        <v>0.0006989273131865192</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.960734414935573</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01295694128192615</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>12.5116715673345</v>
+        <v>7.029662451188983</v>
       </c>
       <c r="L24">
-        <v>0.0336249401240174</v>
+        <v>0.0317994023388799</v>
       </c>
       <c r="M24">
-        <v>7.530567672218837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.913735523585089</v>
+      </c>
+      <c r="N24">
+        <v>0.806731328485526</v>
+      </c>
+      <c r="O24">
+        <v>4.784264641001556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.004915876684004061</v>
+        <v>0.1632950841429022</v>
       </c>
       <c r="D25">
-        <v>0.04731694085848659</v>
+        <v>0.1205631124164768</v>
       </c>
       <c r="E25">
-        <v>0.04184253735609467</v>
+        <v>0.0207454538824301</v>
       </c>
       <c r="F25">
-        <v>2.892462624738357</v>
+        <v>4.531795056238877</v>
       </c>
       <c r="G25">
-        <v>0.0006965604416749884</v>
+        <v>0.0007297676562525827</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.206227600421329</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01139429686044835</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>9.925821304235228</v>
+        <v>5.596591161542932</v>
       </c>
       <c r="L25">
-        <v>0.02861500984291077</v>
+        <v>0.0303604946285887</v>
       </c>
       <c r="M25">
-        <v>5.96930336031167</v>
+        <v>3.917886735451845</v>
+      </c>
+      <c r="N25">
+        <v>0.8195104198267842</v>
+      </c>
+      <c r="O25">
+        <v>3.807067389435105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1462903792941006</v>
+        <v>0.145302221727917</v>
       </c>
       <c r="D2">
-        <v>0.105475708485244</v>
+        <v>0.3523362277305182</v>
       </c>
       <c r="E2">
-        <v>0.02214816989077306</v>
+        <v>0.1652934641973332</v>
       </c>
       <c r="F2">
-        <v>3.770159483660933</v>
+        <v>6.601251529869842</v>
       </c>
       <c r="G2">
-        <v>0.0007522597957130538</v>
+        <v>0.0007807334910552389</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.606807427153313</v>
+        <v>3.671543989347754</v>
       </c>
       <c r="L2">
-        <v>0.02933741549060542</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.233011837055273</v>
+        <v>1.070591786449512</v>
       </c>
       <c r="N2">
-        <v>0.8357501883981797</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.173729716376272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1360449262258925</v>
+        <v>0.1243533777233949</v>
       </c>
       <c r="D3">
-        <v>0.0970452628693721</v>
+        <v>0.3140047170658704</v>
       </c>
       <c r="E3">
-        <v>0.02322543372954655</v>
+        <v>0.1424772594407564</v>
       </c>
       <c r="F3">
-        <v>3.296878969547464</v>
+        <v>5.788593446007525</v>
       </c>
       <c r="G3">
-        <v>0.0007676095763135029</v>
+        <v>0.0007934462347195994</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.962985671082151</v>
+        <v>3.134663450306448</v>
       </c>
       <c r="L3">
-        <v>0.02866215971168984</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.788998092066848</v>
+        <v>0.9161906592107485</v>
       </c>
       <c r="N3">
-        <v>0.8503485047457104</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.781651612023666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1302615730399026</v>
+        <v>0.1118321155368278</v>
       </c>
       <c r="D4">
-        <v>0.09256192115962136</v>
+        <v>0.2912304506940586</v>
       </c>
       <c r="E4">
-        <v>0.02394279037396352</v>
+        <v>0.1288901027057854</v>
       </c>
       <c r="F4">
-        <v>3.022602242950114</v>
+        <v>5.305112587589548</v>
       </c>
       <c r="G4">
-        <v>0.0007771478412677232</v>
+        <v>0.000801367871646014</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.577506594616437</v>
+        <v>2.815172424606317</v>
       </c>
       <c r="L4">
-        <v>0.02825543485711179</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.523780629258198</v>
+        <v>0.8242693667317909</v>
       </c>
       <c r="N4">
-        <v>0.8609086172591986</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.555063252995566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1280169692121547</v>
+        <v>0.1068014620391864</v>
       </c>
       <c r="D5">
-        <v>0.09088539780541538</v>
+        <v>0.2821097742167353</v>
       </c>
       <c r="E5">
-        <v>0.0242483504529627</v>
+        <v>0.1234426881937232</v>
       </c>
       <c r="F5">
-        <v>2.914332883057256</v>
+        <v>5.111385038632875</v>
       </c>
       <c r="G5">
-        <v>0.0007810708853514681</v>
+        <v>0.0008046302391855931</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.422461306386168</v>
+        <v>2.687127169295991</v>
       </c>
       <c r="L5">
-        <v>0.0280915557286896</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.417251744528102</v>
+        <v>0.7874216784671688</v>
       </c>
       <c r="N5">
-        <v>0.8655910284326467</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.465764634377578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1276506193510301</v>
+        <v>0.1059700898912013</v>
       </c>
       <c r="D6">
-        <v>0.09061547398917469</v>
+        <v>0.2806041118688967</v>
       </c>
       <c r="E6">
-        <v>0.02429986557436292</v>
+        <v>0.1225431037153299</v>
       </c>
       <c r="F6">
-        <v>2.896550295060393</v>
+        <v>5.079399542577193</v>
       </c>
       <c r="G6">
-        <v>0.0007817246872353383</v>
+        <v>0.0008051741574636489</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.396827983912658</v>
+        <v>2.66598438329811</v>
       </c>
       <c r="L6">
-        <v>0.0280644533408374</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.39964798072721</v>
+        <v>0.7813370013235996</v>
       </c>
       <c r="N6">
-        <v>0.8663908348024449</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.451106384951942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1302308661709048</v>
+        <v>0.1117639966433046</v>
       </c>
       <c r="D7">
-        <v>0.09253873048766081</v>
+        <v>0.2911068368645431</v>
       </c>
       <c r="E7">
-        <v>0.02394685870076829</v>
+        <v>0.1288162952823981</v>
       </c>
       <c r="F7">
-        <v>3.021128643438345</v>
+        <v>5.302487310345612</v>
       </c>
       <c r="G7">
-        <v>0.0007772005933936177</v>
+        <v>0.0008014117241894159</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.575407861340267</v>
+        <v>2.813437352160747</v>
       </c>
       <c r="L7">
-        <v>0.0282532173148109</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.522338051065788</v>
+        <v>0.8237700916908537</v>
       </c>
       <c r="N7">
-        <v>0.8609702584951862</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.55384727168186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1426423964776404</v>
+        <v>0.1379991977228059</v>
       </c>
       <c r="D8">
-        <v>0.1024095077589351</v>
+        <v>0.3389412479689184</v>
       </c>
       <c r="E8">
-        <v>0.02250746863930075</v>
+        <v>0.1573281056322458</v>
       </c>
       <c r="F8">
-        <v>3.603192415174675</v>
+        <v>6.317444226816093</v>
       </c>
       <c r="G8">
-        <v>0.0007575337990000787</v>
+        <v>0.0007850960422026329</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.382496263307161</v>
+        <v>3.484059069863747</v>
       </c>
       <c r="L8">
-        <v>0.02910287105480691</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.078173782062592</v>
+        <v>1.016682930379901</v>
       </c>
       <c r="N8">
-        <v>0.8404378235595971</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3.035265708892766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1718533850677773</v>
+        <v>0.1928992621939756</v>
       </c>
       <c r="D9">
-        <v>0.1285860772622698</v>
+        <v>0.4404589244968093</v>
       </c>
       <c r="E9">
-        <v>0.0201734555008537</v>
+        <v>0.2174748489660985</v>
       </c>
       <c r="F9">
-        <v>4.907275756404516</v>
+        <v>8.462676724372415</v>
       </c>
       <c r="G9">
-        <v>0.000719450713415054</v>
+        <v>0.0007537515384559487</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.066972190364652</v>
+        <v>4.901370658778774</v>
       </c>
       <c r="L9">
-        <v>0.03083876928668872</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>4.244233320739752</v>
+        <v>1.423921958987535</v>
       </c>
       <c r="N9">
-        <v>0.8140413475150439</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4.120212168280233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.197786819726204</v>
+        <v>0.2366026627201876</v>
       </c>
       <c r="D10">
-        <v>0.1543632870755829</v>
+        <v>0.5225928071750161</v>
       </c>
       <c r="E10">
-        <v>0.01883566627882516</v>
+        <v>0.265750848080728</v>
       </c>
       <c r="F10">
-        <v>6.023691411813729</v>
+        <v>10.18748883856821</v>
       </c>
       <c r="G10">
-        <v>0.0006910253868813374</v>
+        <v>0.000730661729741888</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.40906280065613</v>
+        <v>6.042083560216611</v>
       </c>
       <c r="L10">
-        <v>0.03217085349662696</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>5.178147233986522</v>
+        <v>1.751138432034779</v>
       </c>
       <c r="N10">
-        <v>0.8051501374645369</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>5.054281564941988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2110256572488396</v>
+        <v>0.257584764952739</v>
       </c>
       <c r="D11">
-        <v>0.1682767328904902</v>
+        <v>0.5624312831019154</v>
       </c>
       <c r="E11">
-        <v>0.01833348467680729</v>
+        <v>0.2890395901297182</v>
       </c>
       <c r="F11">
-        <v>6.5845724185221</v>
+        <v>11.0203035353295</v>
       </c>
       <c r="G11">
-        <v>0.0006777650429495078</v>
+        <v>0.0007200106439331925</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.055669540227768</v>
+        <v>6.593576904459894</v>
       </c>
       <c r="L11">
-        <v>0.03279420857052173</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5.629472497894085</v>
+        <v>1.909137105439257</v>
       </c>
       <c r="N11">
-        <v>0.8039924593713721</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5.525050369636062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2163009150232398</v>
+        <v>0.2657285847122353</v>
       </c>
       <c r="D12">
-        <v>0.1739510214322451</v>
+        <v>0.5779641641715045</v>
       </c>
       <c r="E12">
-        <v>0.01816146493052084</v>
+        <v>0.2980971676448618</v>
       </c>
       <c r="F12">
-        <v>6.806768924326661</v>
+        <v>11.3443246065633</v>
       </c>
       <c r="G12">
-        <v>0.0006726691915844706</v>
+        <v>0.0007159416063921165</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.30727464214786</v>
+        <v>6.808302086828178</v>
       </c>
       <c r="L12">
-        <v>0.03303340334419858</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>5.805319876115476</v>
+        <v>1.970616810231675</v>
       </c>
       <c r="N12">
-        <v>0.8040365348070537</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5.711800189083561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.215152079917857</v>
+        <v>0.263965101140144</v>
       </c>
       <c r="D13">
-        <v>0.1727091371968612</v>
+        <v>0.5745973065029943</v>
       </c>
       <c r="E13">
-        <v>0.01819765042904464</v>
+        <v>0.2961349544815803</v>
       </c>
       <c r="F13">
-        <v>6.758436509861752</v>
+        <v>11.27412397640143</v>
       </c>
       <c r="G13">
-        <v>0.0006737705121304728</v>
+        <v>0.0007168198048484361</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.252756432093918</v>
+        <v>6.761772877201224</v>
       </c>
       <c r="L13">
-        <v>0.03298173542951233</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>5.767206245722036</v>
+        <v>1.957296478808175</v>
       </c>
       <c r="N13">
-        <v>0.8040043144533797</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5.671166390928903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2114540292904366</v>
+        <v>0.2582505221099751</v>
       </c>
       <c r="D14">
-        <v>0.1687347998907143</v>
+        <v>0.5636996228782607</v>
       </c>
       <c r="E14">
-        <v>0.01831894936691292</v>
+        <v>0.2897796642389636</v>
       </c>
       <c r="F14">
-        <v>6.602641176411765</v>
+        <v>11.04677614149529</v>
       </c>
       <c r="G14">
-        <v>0.0006773474825736868</v>
+        <v>0.0007196766936775217</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.076223229375472</v>
+        <v>6.611116510389081</v>
       </c>
       <c r="L14">
-        <v>0.03281381960514196</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>5.643832760123587</v>
+        <v>1.914159813775953</v>
       </c>
       <c r="N14">
-        <v>0.8039859655036281</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>5.540231439650285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2092249037591358</v>
+        <v>0.2547773633225034</v>
       </c>
       <c r="D15">
-        <v>0.1663564421987047</v>
+        <v>0.5570857649327934</v>
       </c>
       <c r="E15">
-        <v>0.01839571098267445</v>
+        <v>0.2859195590607158</v>
       </c>
       <c r="F15">
-        <v>6.508565277668595</v>
+        <v>10.90870416991697</v>
       </c>
       <c r="G15">
-        <v>0.0006795278342246469</v>
+        <v>0.0007214214788080626</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.969025329843959</v>
+        <v>6.519642631859369</v>
       </c>
       <c r="L15">
-        <v>0.03271139938347645</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>5.56894608487724</v>
+        <v>1.887963452380788</v>
       </c>
       <c r="N15">
-        <v>0.8040398621247533</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>5.461200650350349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1969549432153173</v>
+        <v>0.2352567976604831</v>
       </c>
       <c r="D16">
-        <v>0.1535051513252768</v>
+        <v>0.5200463611410555</v>
       </c>
       <c r="E16">
-        <v>0.01887085031038183</v>
+        <v>0.2642594140591896</v>
       </c>
       <c r="F16">
-        <v>5.988274598882612</v>
+        <v>10.13417013553035</v>
       </c>
       <c r="G16">
-        <v>0.0006918832239072175</v>
+        <v>0.0007313536753149609</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.367654232080838</v>
+        <v>6.006793813555305</v>
       </c>
       <c r="L16">
-        <v>0.03213051493474239</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5.149273945669194</v>
+        <v>1.741023600702846</v>
       </c>
       <c r="N16">
-        <v>0.8052892527112192</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>5.02458660002506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.18983093672</v>
+        <v>0.2235892080219912</v>
       </c>
       <c r="D17">
-        <v>0.1462376144323088</v>
+        <v>0.4980159962547646</v>
       </c>
       <c r="E17">
-        <v>0.0191913563445123</v>
+        <v>0.251342206155087</v>
       </c>
       <c r="F17">
-        <v>5.684023244226466</v>
+        <v>9.672462892693289</v>
       </c>
       <c r="G17">
-        <v>0.0006993616727770757</v>
+        <v>0.0007373997272597548</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.008941774036913</v>
+        <v>5.701287806095877</v>
       </c>
       <c r="L17">
-        <v>0.03177899675454654</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>4.899303727656729</v>
+        <v>1.653436398895138</v>
       </c>
       <c r="N17">
-        <v>0.8068378476620239</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>4.769651519476383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1858650253905552</v>
+        <v>0.2169790981545816</v>
       </c>
       <c r="D18">
-        <v>0.1422565724408145</v>
+        <v>0.4855711611974414</v>
       </c>
       <c r="E18">
-        <v>0.01938550591200006</v>
+        <v>0.2440341174720757</v>
       </c>
       <c r="F18">
-        <v>5.513854023985715</v>
+        <v>9.411313132051021</v>
       </c>
       <c r="G18">
-        <v>0.0007036340754926954</v>
+        <v>0.0007408644234454424</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.805900023843378</v>
+        <v>5.528548417824368</v>
       </c>
       <c r="L18">
-        <v>0.03157839894609538</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>4.757935964085334</v>
+        <v>1.603895395440588</v>
       </c>
       <c r="N18">
-        <v>0.8079954208660212</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>4.627195360642531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1845434337608509</v>
+        <v>0.2147572677906595</v>
       </c>
       <c r="D19">
-        <v>0.1409405262359087</v>
+        <v>0.4813940196170563</v>
       </c>
       <c r="E19">
-        <v>0.0194528515931367</v>
+        <v>0.2415793249712763</v>
       </c>
       <c r="F19">
-        <v>5.457010895984723</v>
+        <v>9.323604044669338</v>
       </c>
       <c r="G19">
-        <v>0.0007050763519955248</v>
+        <v>0.0007420356931760828</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.737676851132022</v>
+        <v>5.470541588924846</v>
       </c>
       <c r="L19">
-        <v>0.03151073668514925</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>4.710455831100333</v>
+        <v>1.587256494328543</v>
       </c>
       <c r="N19">
-        <v>0.8084314084698292</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>4.579630915280745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1905753320258015</v>
+        <v>0.2248205527758955</v>
       </c>
       <c r="D20">
-        <v>0.1469900870272198</v>
+        <v>0.500337139953217</v>
       </c>
       <c r="E20">
-        <v>0.01915620537217144</v>
+        <v>0.2527043754963074</v>
       </c>
       <c r="F20">
-        <v>5.715897948841302</v>
+        <v>9.72114460436444</v>
       </c>
       <c r="G20">
-        <v>0.0006985687508061203</v>
+        <v>0.0007367575369231466</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.046778045167798</v>
+        <v>5.733493290137289</v>
       </c>
       <c r="L20">
-        <v>0.03181624843398723</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>4.925657104383006</v>
+        <v>1.662671434263189</v>
       </c>
       <c r="N20">
-        <v>0.8066449447075428</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>4.796345784872983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2125326028481567</v>
+        <v>0.2599232811184464</v>
       </c>
       <c r="D21">
-        <v>0.1698902725072884</v>
+        <v>0.5668875685373962</v>
       </c>
       <c r="E21">
-        <v>0.01828280135317772</v>
+        <v>0.2916394512496367</v>
       </c>
       <c r="F21">
-        <v>6.648115092140387</v>
+        <v>11.11330302805555</v>
       </c>
       <c r="G21">
-        <v>0.0006762991195143897</v>
+        <v>0.0007188386586806292</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.1278771763848</v>
+        <v>6.65519705936606</v>
       </c>
       <c r="L21">
-        <v>0.03286304874871959</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>5.679925613594406</v>
+        <v>1.926782261014822</v>
       </c>
       <c r="N21">
-        <v>0.8039776338455482</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>5.578441972233776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2284496764218602</v>
+        <v>0.2840474892941245</v>
       </c>
       <c r="D22">
-        <v>0.1872883499954412</v>
+        <v>0.61304742991328</v>
       </c>
       <c r="E22">
-        <v>0.01781978875872614</v>
+        <v>0.3185082440237608</v>
       </c>
       <c r="F22">
-        <v>7.316101440270131</v>
+        <v>12.0747293227185</v>
       </c>
       <c r="G22">
-        <v>0.0006612909762366551</v>
+        <v>0.0007069099277402168</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.874914710182992</v>
+        <v>7.292697681561378</v>
       </c>
       <c r="L22">
-        <v>0.03356604195054658</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>6.202504034554948</v>
+        <v>2.109227801740701</v>
       </c>
       <c r="N22">
-        <v>0.8050924593977413</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>6.140390959461627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2197880341012279</v>
+        <v>0.2710477659749557</v>
       </c>
       <c r="D23">
-        <v>0.17774128539034</v>
+        <v>0.5881307236033422</v>
       </c>
       <c r="E23">
-        <v>0.01805585025111434</v>
+        <v>0.3040186404703604</v>
       </c>
       <c r="F23">
-        <v>6.953289041243437</v>
+        <v>11.55619064220974</v>
       </c>
       <c r="G23">
-        <v>0.0006693540569194484</v>
+        <v>0.0007133022416423813</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.471843079950474</v>
+        <v>6.948755432196663</v>
       </c>
       <c r="L23">
-        <v>0.03318882539575796</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>5.920405247821861</v>
+        <v>2.010819453070866</v>
       </c>
       <c r="N23">
-        <v>0.8042085570388338</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>5.835021336371994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1902383905641898</v>
+        <v>0.2242635602484881</v>
       </c>
       <c r="D24">
-        <v>0.146649286473405</v>
+        <v>0.4992870699571199</v>
       </c>
       <c r="E24">
-        <v>0.01917206653507897</v>
+        <v>0.2520881740509182</v>
       </c>
       <c r="F24">
-        <v>5.701472757214617</v>
+        <v>9.699122358367362</v>
       </c>
       <c r="G24">
-        <v>0.0006989273131865192</v>
+        <v>0.0007370479052660059</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.029662451188983</v>
+        <v>5.718924244136815</v>
       </c>
       <c r="L24">
-        <v>0.0317994023388799</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>4.913735523585089</v>
+        <v>1.658493763225962</v>
       </c>
       <c r="N24">
-        <v>0.806731328485526</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>4.784264641001556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1632950841429022</v>
+        <v>0.1775615850122989</v>
       </c>
       <c r="D25">
-        <v>0.1205631124164768</v>
+        <v>0.4119086913726875</v>
       </c>
       <c r="E25">
-        <v>0.0207454538824301</v>
+        <v>0.2006119279981036</v>
       </c>
       <c r="F25">
-        <v>4.531795056238877</v>
+        <v>7.860764305445628</v>
       </c>
       <c r="G25">
-        <v>0.0007297676562525827</v>
+        <v>0.0007622034706054048</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.596591161542932</v>
+        <v>4.503615485824866</v>
       </c>
       <c r="L25">
-        <v>0.0303604946285887</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>3.917886735451845</v>
+        <v>1.309704826647405</v>
       </c>
       <c r="N25">
-        <v>0.8195104198267842</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.807067389435105</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.145302221727917</v>
+        <v>0.04794271460666266</v>
       </c>
       <c r="D2">
-        <v>0.3523362277305182</v>
+        <v>0.193508410118568</v>
       </c>
       <c r="E2">
-        <v>0.1652934641973332</v>
+        <v>0.06606112079597182</v>
       </c>
       <c r="F2">
-        <v>6.601251529869842</v>
+        <v>3.54499807292251</v>
       </c>
       <c r="G2">
-        <v>0.0007807334910552389</v>
+        <v>0.002509703061337871</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.671543989347754</v>
+        <v>1.517009757728829</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.070591786449512</v>
+        <v>0.4448321100705996</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1243533777233949</v>
+        <v>0.04260015905781245</v>
       </c>
       <c r="D3">
-        <v>0.3140047170658704</v>
+        <v>0.1833137481967668</v>
       </c>
       <c r="E3">
-        <v>0.1424772594407564</v>
+        <v>0.06027124878698586</v>
       </c>
       <c r="F3">
-        <v>5.788593446007525</v>
+        <v>3.339990571879412</v>
       </c>
       <c r="G3">
-        <v>0.0007934462347195994</v>
+        <v>0.002516736769535932</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.134663450306448</v>
+        <v>1.403504704817351</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9161906592107485</v>
+        <v>0.4099697860196798</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1118321155368278</v>
+        <v>0.0393426102755825</v>
       </c>
       <c r="D4">
-        <v>0.2912304506940586</v>
+        <v>0.177068457234455</v>
       </c>
       <c r="E4">
-        <v>0.1288901027057854</v>
+        <v>0.05674559003634627</v>
       </c>
       <c r="F4">
-        <v>5.305112587589548</v>
+        <v>3.215251527776445</v>
       </c>
       <c r="G4">
-        <v>0.000801367871646014</v>
+        <v>0.002521271152526035</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.815172424606317</v>
+        <v>1.33531791114072</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8242693667317909</v>
+        <v>0.3889290001933148</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1068014620391864</v>
+        <v>0.03802064977891462</v>
       </c>
       <c r="D5">
-        <v>0.2821097742167353</v>
+        <v>0.1745263476503283</v>
       </c>
       <c r="E5">
-        <v>0.1234426881937232</v>
+        <v>0.05531593101532195</v>
       </c>
       <c r="F5">
-        <v>5.111385038632875</v>
+        <v>3.164694216524197</v>
       </c>
       <c r="G5">
-        <v>0.0008046302391855931</v>
+        <v>0.002523173408698779</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.687127169295991</v>
+        <v>1.307904775614162</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7874216784671688</v>
+        <v>0.3804448538546978</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1059700898912013</v>
+        <v>0.03780146620368896</v>
       </c>
       <c r="D6">
-        <v>0.2806041118688967</v>
+        <v>0.1741043871542303</v>
       </c>
       <c r="E6">
-        <v>0.1225431037153299</v>
+        <v>0.05507895576092636</v>
       </c>
       <c r="F6">
-        <v>5.079399542577193</v>
+        <v>3.15631549847447</v>
       </c>
       <c r="G6">
-        <v>0.0008051741574636489</v>
+        <v>0.002523492572746546</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.66598438329811</v>
+        <v>1.303375259357892</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7813370013235996</v>
+        <v>0.379041466415174</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1117639966433046</v>
+        <v>0.03932475979848959</v>
       </c>
       <c r="D7">
-        <v>0.2911068368645431</v>
+        <v>0.1770341626363461</v>
       </c>
       <c r="E7">
-        <v>0.1288162952823981</v>
+        <v>0.05672628090525933</v>
       </c>
       <c r="F7">
-        <v>5.302487310345612</v>
+        <v>3.214568595598024</v>
       </c>
       <c r="G7">
-        <v>0.0008014117241894159</v>
+        <v>0.002521296586350363</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.813437352160747</v>
+        <v>1.334946702216712</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8237700916908537</v>
+        <v>0.3888142171165327</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1379991977228059</v>
+        <v>0.04609573591413607</v>
       </c>
       <c r="D8">
-        <v>0.3389412479689184</v>
+        <v>0.1899899079802339</v>
       </c>
       <c r="E8">
-        <v>0.1573281056322458</v>
+        <v>0.0640584966585962</v>
       </c>
       <c r="F8">
-        <v>6.317444226816093</v>
+        <v>3.474068977664729</v>
       </c>
       <c r="G8">
-        <v>0.0007850960422026329</v>
+        <v>0.002512083662825871</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.484059069863747</v>
+        <v>1.477557547601634</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.016682930379901</v>
+        <v>0.4327348824909123</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1928992621939756</v>
+        <v>0.05956507685074541</v>
       </c>
       <c r="D9">
-        <v>0.4404589244968093</v>
+        <v>0.2155416957839122</v>
       </c>
       <c r="E9">
-        <v>0.2174748489660985</v>
+        <v>0.07868429503253793</v>
       </c>
       <c r="F9">
-        <v>8.462676724372415</v>
+        <v>3.992484918094618</v>
       </c>
       <c r="G9">
-        <v>0.0007537515384559487</v>
+        <v>0.002495717783382024</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.901370658778774</v>
+        <v>1.769416227651391</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.423921958987535</v>
+        <v>0.5218357450691684</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2366026627201876</v>
+        <v>0.06959348479192329</v>
       </c>
       <c r="D10">
-        <v>0.5225928071750161</v>
+        <v>0.2344498723364268</v>
       </c>
       <c r="E10">
-        <v>0.265750848080728</v>
+        <v>0.08960189360917781</v>
       </c>
       <c r="F10">
-        <v>10.18748883856821</v>
+        <v>4.379939922884034</v>
       </c>
       <c r="G10">
-        <v>0.000730661729741888</v>
+        <v>0.002484715731371429</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.042083560216611</v>
+        <v>1.991661753841868</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.751138432034779</v>
+        <v>0.5892269358565301</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.257584764952739</v>
+        <v>0.07418797172843483</v>
       </c>
       <c r="D11">
-        <v>0.5624312831019154</v>
+        <v>0.2430913140926236</v>
       </c>
       <c r="E11">
-        <v>0.2890395901297182</v>
+        <v>0.09461066809488017</v>
       </c>
       <c r="F11">
-        <v>11.0203035353295</v>
+        <v>4.557800156230428</v>
       </c>
       <c r="G11">
-        <v>0.0007200106439331925</v>
+        <v>0.002479929333560079</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.593576904459894</v>
+        <v>2.094550732736423</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.909137105439257</v>
+        <v>0.6203300863466268</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2657285847122353</v>
+        <v>0.07593273458562066</v>
       </c>
       <c r="D12">
-        <v>0.5779641641715045</v>
+        <v>0.2463701724324778</v>
       </c>
       <c r="E12">
-        <v>0.2980971676448618</v>
+        <v>0.09651381478889931</v>
       </c>
       <c r="F12">
-        <v>11.3443246065633</v>
+        <v>4.625395293311612</v>
       </c>
       <c r="G12">
-        <v>0.0007159416063921165</v>
+        <v>0.002478148020288323</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.808302086828178</v>
+        <v>2.133776058968238</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.970616810231675</v>
+        <v>0.6321743186085627</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.263965101140144</v>
+        <v>0.07555674528603618</v>
       </c>
       <c r="D13">
-        <v>0.5745973065029943</v>
+        <v>0.2456637086179398</v>
       </c>
       <c r="E13">
-        <v>0.2961349544815803</v>
+        <v>0.09610364638171376</v>
       </c>
       <c r="F13">
-        <v>11.27412397640143</v>
+        <v>4.610826447114732</v>
       </c>
       <c r="G13">
-        <v>0.0007168198048484361</v>
+        <v>0.002478530274391277</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.761772877201224</v>
+        <v>2.125316360824172</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.957296478808175</v>
+        <v>0.6296204782224635</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2582505221099751</v>
+        <v>0.07433141412501243</v>
       </c>
       <c r="D14">
-        <v>0.5636996228782607</v>
+        <v>0.2433609323365715</v>
       </c>
       <c r="E14">
-        <v>0.2897796642389636</v>
+        <v>0.09476711017808981</v>
       </c>
       <c r="F14">
-        <v>11.04677614149529</v>
+        <v>4.563356299618533</v>
       </c>
       <c r="G14">
-        <v>0.0007196766936775217</v>
+        <v>0.002479782160092291</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.611116510389081</v>
+        <v>2.097772505962496</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.914159813775953</v>
+        <v>0.6213031815995862</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2547773633225034</v>
+        <v>0.07358151315382599</v>
       </c>
       <c r="D15">
-        <v>0.5570857649327934</v>
+        <v>0.2419512892907676</v>
       </c>
       <c r="E15">
-        <v>0.2859195590607158</v>
+        <v>0.093949291338987</v>
       </c>
       <c r="F15">
-        <v>10.90870416991697</v>
+        <v>4.534311527721741</v>
       </c>
       <c r="G15">
-        <v>0.0007214214788080626</v>
+        <v>0.002480553031424636</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.519642631859369</v>
+        <v>2.080935606740013</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.887963452380788</v>
+        <v>0.6162172693285015</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2352567976604831</v>
+        <v>0.06929390018628112</v>
       </c>
       <c r="D16">
-        <v>0.5200463611410555</v>
+        <v>0.2338860052469443</v>
       </c>
       <c r="E16">
-        <v>0.2642594140591896</v>
+        <v>0.0892754393910522</v>
       </c>
       <c r="F16">
-        <v>10.13417013553035</v>
+        <v>4.368349700961573</v>
       </c>
       <c r="G16">
-        <v>0.0007313536753149609</v>
+        <v>0.00248503291086338</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.006793813555305</v>
+        <v>1.984974241123211</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.741023600702846</v>
+        <v>0.5872034215242081</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2235892080219912</v>
+        <v>0.06667209563741494</v>
       </c>
       <c r="D17">
-        <v>0.4980159962547646</v>
+        <v>0.2289490137497694</v>
       </c>
       <c r="E17">
-        <v>0.251342206155087</v>
+        <v>0.08641926417762136</v>
       </c>
       <c r="F17">
-        <v>9.672462892693289</v>
+        <v>4.266957419007724</v>
       </c>
       <c r="G17">
-        <v>0.0007373997272597548</v>
+        <v>0.002487836971054906</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.701287806095877</v>
+        <v>1.926567545999092</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.653436398895138</v>
+        <v>0.5695200971510701</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2169790981545816</v>
+        <v>0.06516714776611821</v>
       </c>
       <c r="D18">
-        <v>0.4855711611974414</v>
+        <v>0.2261131062799109</v>
       </c>
       <c r="E18">
-        <v>0.2440341174720757</v>
+        <v>0.08478042833534971</v>
       </c>
       <c r="F18">
-        <v>9.411313132051021</v>
+        <v>4.208789568190753</v>
       </c>
       <c r="G18">
-        <v>0.0007408644234454424</v>
+        <v>0.00248947037135564</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.528548417824368</v>
+        <v>1.893141499546289</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.603895395440588</v>
+        <v>0.559391030537526</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2147572677906595</v>
+        <v>0.06465811354667039</v>
       </c>
       <c r="D19">
-        <v>0.4813940196170563</v>
+        <v>0.2251535320619951</v>
       </c>
       <c r="E19">
-        <v>0.2415793249712763</v>
+        <v>0.08422621638071348</v>
       </c>
       <c r="F19">
-        <v>9.323604044669338</v>
+        <v>4.189120370911098</v>
       </c>
       <c r="G19">
-        <v>0.0007420356931760828</v>
+        <v>0.002490026954100814</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.470541588924846</v>
+        <v>1.881852668380873</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.587256494328543</v>
+        <v>0.5559686434110773</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2248205527758955</v>
+        <v>0.06695087425708834</v>
       </c>
       <c r="D20">
-        <v>0.500337139953217</v>
+        <v>0.229474174376378</v>
       </c>
       <c r="E20">
-        <v>0.2527043754963074</v>
+        <v>0.08672289648875875</v>
       </c>
       <c r="F20">
-        <v>9.72114460436444</v>
+        <v>4.277735154178572</v>
       </c>
       <c r="G20">
-        <v>0.0007367575369231466</v>
+        <v>0.002487536345973029</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.733493290137289</v>
+        <v>1.932767611977454</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.662671434263189</v>
+        <v>0.5713981654786835</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2599232811184464</v>
+        <v>0.07469118772013417</v>
       </c>
       <c r="D21">
-        <v>0.5668875685373962</v>
+        <v>0.2440371300255038</v>
       </c>
       <c r="E21">
-        <v>0.2916394512496367</v>
+        <v>0.09515950586816047</v>
       </c>
       <c r="F21">
-        <v>11.11330302805555</v>
+        <v>4.577292727815632</v>
       </c>
       <c r="G21">
-        <v>0.0007188386586806292</v>
+        <v>0.002479413606278121</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.65519705936606</v>
+        <v>2.10585560096365</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.926782261014822</v>
+        <v>0.6237443624669226</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2840474892941245</v>
+        <v>0.07977879050326919</v>
       </c>
       <c r="D22">
-        <v>0.61304742991328</v>
+        <v>0.2535933053540873</v>
       </c>
       <c r="E22">
-        <v>0.3185082440237608</v>
+        <v>0.1007109780699054</v>
       </c>
       <c r="F22">
-        <v>12.0747293227185</v>
+        <v>4.77449519497776</v>
       </c>
       <c r="G22">
-        <v>0.0007069099277402168</v>
+        <v>0.002474286628953603</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.292697681561378</v>
+        <v>2.220517582425941</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.109227801740701</v>
+        <v>0.6583420994964797</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2710477659749557</v>
+        <v>0.07706071465536013</v>
       </c>
       <c r="D23">
-        <v>0.5881307236033422</v>
+        <v>0.2484892174161075</v>
       </c>
       <c r="E23">
-        <v>0.3040186404703604</v>
+        <v>0.09774448988449791</v>
       </c>
       <c r="F23">
-        <v>11.55619064220974</v>
+        <v>4.66911000531519</v>
       </c>
       <c r="G23">
-        <v>0.0007133022416423813</v>
+        <v>0.002477006442614239</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.948755432196663</v>
+        <v>2.15917736491906</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.010819453070866</v>
+        <v>0.6398406230615592</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2242635602484881</v>
+        <v>0.06682483110319026</v>
       </c>
       <c r="D24">
-        <v>0.4992870699571199</v>
+        <v>0.2292367417322794</v>
       </c>
       <c r="E24">
-        <v>0.2520881740509182</v>
+        <v>0.08658561432593359</v>
       </c>
       <c r="F24">
-        <v>9.699122358367362</v>
+        <v>4.272862155060949</v>
       </c>
       <c r="G24">
-        <v>0.0007370479052660059</v>
+        <v>0.002487672192154316</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.718924244136815</v>
+        <v>1.929964086872189</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.658493763225962</v>
+        <v>0.5705489747141002</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1775615850122989</v>
+        <v>0.05589915484209484</v>
       </c>
       <c r="D25">
-        <v>0.4119086913726875</v>
+        <v>0.2086088988375536</v>
       </c>
       <c r="E25">
-        <v>0.2006119279981036</v>
+        <v>0.07469897424857663</v>
       </c>
       <c r="F25">
-        <v>7.860764305445628</v>
+        <v>3.85114077886746</v>
       </c>
       <c r="G25">
-        <v>0.0007622034706054048</v>
+        <v>0.002499964650560755</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.503615485824866</v>
+        <v>1.689116059873072</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.309704826647405</v>
+        <v>0.4974014779592295</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04794271460666266</v>
+        <v>0.1453022217279454</v>
       </c>
       <c r="D2">
-        <v>0.193508410118568</v>
+        <v>0.3523362277307314</v>
       </c>
       <c r="E2">
-        <v>0.06606112079597182</v>
+        <v>0.1652934641973118</v>
       </c>
       <c r="F2">
-        <v>3.54499807292251</v>
+        <v>6.601251529869756</v>
       </c>
       <c r="G2">
-        <v>0.002509703061337871</v>
+        <v>0.0007807334908611447</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.517009757728829</v>
+        <v>3.67154398934764</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4448321100705996</v>
+        <v>1.070591786449569</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04260015905781245</v>
+        <v>0.1243533777237644</v>
       </c>
       <c r="D3">
-        <v>0.1833137481967668</v>
+        <v>0.3140047170663109</v>
       </c>
       <c r="E3">
-        <v>0.06027124878698586</v>
+        <v>0.1424772594406924</v>
       </c>
       <c r="F3">
-        <v>3.339990571879412</v>
+        <v>5.788593446007582</v>
       </c>
       <c r="G3">
-        <v>0.002516736769535932</v>
+        <v>0.0007934462348647766</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.403504704817351</v>
+        <v>3.134663450306391</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4099697860196798</v>
+        <v>0.9161906592107556</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0393426102755825</v>
+        <v>0.1118321155366289</v>
       </c>
       <c r="D4">
-        <v>0.177068457234455</v>
+        <v>0.2912304506935897</v>
       </c>
       <c r="E4">
-        <v>0.05674559003634627</v>
+        <v>0.1288901027058778</v>
       </c>
       <c r="F4">
-        <v>3.215251527776445</v>
+        <v>5.305112587589662</v>
       </c>
       <c r="G4">
-        <v>0.002521271152526035</v>
+        <v>0.0008013678716335013</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.33531791114072</v>
+        <v>2.815172424606232</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3889290001933148</v>
+        <v>0.8242693667318193</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03802064977891462</v>
+        <v>0.106801462039158</v>
       </c>
       <c r="D5">
-        <v>0.1745263476503283</v>
+        <v>0.2821097742166643</v>
       </c>
       <c r="E5">
-        <v>0.05531593101532195</v>
+        <v>0.1234426881937232</v>
       </c>
       <c r="F5">
-        <v>3.164694216524197</v>
+        <v>5.111385038632847</v>
       </c>
       <c r="G5">
-        <v>0.002523173408698779</v>
+        <v>0.0008046302391818403</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.307904775614162</v>
+        <v>2.687127169296133</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3804448538546978</v>
+        <v>0.7874216784671688</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03780146620368896</v>
+        <v>0.1059700898912155</v>
       </c>
       <c r="D6">
-        <v>0.1741043871542303</v>
+        <v>0.2806041118686977</v>
       </c>
       <c r="E6">
-        <v>0.05507895576092636</v>
+        <v>0.1225431037153228</v>
       </c>
       <c r="F6">
-        <v>3.15631549847447</v>
+        <v>5.079399542577249</v>
       </c>
       <c r="G6">
-        <v>0.002523492572746546</v>
+        <v>0.000805174157401677</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.303375259357892</v>
+        <v>2.665984383297996</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.379041466415174</v>
+        <v>0.7813370013235783</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03932475979848959</v>
+        <v>0.1117639966431625</v>
       </c>
       <c r="D7">
-        <v>0.1770341626363461</v>
+        <v>0.2911068368643015</v>
       </c>
       <c r="E7">
-        <v>0.05672628090525933</v>
+        <v>0.1288162952824017</v>
       </c>
       <c r="F7">
-        <v>3.214568595598024</v>
+        <v>5.302487310345612</v>
       </c>
       <c r="G7">
-        <v>0.002521296586350363</v>
+        <v>0.0008014117240450647</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.334946702216712</v>
+        <v>2.81343735216069</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3888142171165327</v>
+        <v>0.8237700916908324</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04609573591413607</v>
+        <v>0.1379991977223511</v>
       </c>
       <c r="D8">
-        <v>0.1899899079802339</v>
+        <v>0.3389412479689327</v>
       </c>
       <c r="E8">
-        <v>0.0640584966585962</v>
+        <v>0.1573281056321321</v>
       </c>
       <c r="F8">
-        <v>3.474068977664729</v>
+        <v>6.317444226816093</v>
       </c>
       <c r="G8">
-        <v>0.002512083662825871</v>
+        <v>0.0007850960422029684</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.477557547601634</v>
+        <v>3.484059069863747</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4327348824909123</v>
+        <v>1.016682930379915</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05956507685074541</v>
+        <v>0.1928992621944019</v>
       </c>
       <c r="D9">
-        <v>0.2155416957839122</v>
+        <v>0.4404589244972499</v>
       </c>
       <c r="E9">
-        <v>0.07868429503253793</v>
+        <v>0.2174748489660132</v>
       </c>
       <c r="F9">
-        <v>3.992484918094618</v>
+        <v>8.462676724372443</v>
       </c>
       <c r="G9">
-        <v>0.002495717783382024</v>
+        <v>0.0007537515384511912</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.769416227651391</v>
+        <v>4.901370658778717</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5218357450691684</v>
+        <v>1.42392195898752</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06959348479192329</v>
+        <v>0.2366026627218645</v>
       </c>
       <c r="D10">
-        <v>0.2344498723364268</v>
+        <v>0.5225928071750445</v>
       </c>
       <c r="E10">
-        <v>0.08960189360917781</v>
+        <v>0.2657508480807493</v>
       </c>
       <c r="F10">
-        <v>4.379939922884034</v>
+        <v>10.18748883856856</v>
       </c>
       <c r="G10">
-        <v>0.002484715731371429</v>
+        <v>0.0007306617298133106</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.991661753841868</v>
+        <v>6.042083560216724</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5892269358565301</v>
+        <v>1.751138432034779</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07418797172843483</v>
+        <v>0.2575847649526537</v>
       </c>
       <c r="D11">
-        <v>0.2430913140926236</v>
+        <v>0.5624312831017448</v>
       </c>
       <c r="E11">
-        <v>0.09461066809488017</v>
+        <v>0.2890395901296827</v>
       </c>
       <c r="F11">
-        <v>4.557800156230428</v>
+        <v>11.0203035353295</v>
       </c>
       <c r="G11">
-        <v>0.002479929333560079</v>
+        <v>0.0007200106441834576</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.094550732736423</v>
+        <v>6.593576904459781</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6203300863466268</v>
+        <v>1.909137105439271</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07593273458562066</v>
+        <v>0.2657285847115958</v>
       </c>
       <c r="D12">
-        <v>0.2463701724324778</v>
+        <v>0.5779641641714477</v>
       </c>
       <c r="E12">
-        <v>0.09651381478889931</v>
+        <v>0.2980971676448192</v>
       </c>
       <c r="F12">
-        <v>4.625395293311612</v>
+        <v>11.34432460656342</v>
       </c>
       <c r="G12">
-        <v>0.002478148020288323</v>
+        <v>0.0007159416065041084</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.133776058968238</v>
+        <v>6.808302086828007</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6321743186085627</v>
+        <v>1.970616810231689</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07555674528603618</v>
+        <v>0.263965101138993</v>
       </c>
       <c r="D13">
-        <v>0.2456637086179398</v>
+        <v>0.5745973065032501</v>
       </c>
       <c r="E13">
-        <v>0.09610364638171376</v>
+        <v>0.2961349544815235</v>
       </c>
       <c r="F13">
-        <v>4.610826447114732</v>
+        <v>11.27412397640165</v>
       </c>
       <c r="G13">
-        <v>0.002478530274391277</v>
+        <v>0.0007168198049272191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.125316360824172</v>
+        <v>6.761772877201395</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6296204782224635</v>
+        <v>1.957296478808203</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07433141412501243</v>
+        <v>0.2582505221098756</v>
       </c>
       <c r="D14">
-        <v>0.2433609323365715</v>
+        <v>0.5636996228777207</v>
       </c>
       <c r="E14">
-        <v>0.09476711017808981</v>
+        <v>0.2897796642389991</v>
       </c>
       <c r="F14">
-        <v>4.563356299618533</v>
+        <v>11.0467761414954</v>
       </c>
       <c r="G14">
-        <v>0.002479782160092291</v>
+        <v>0.0007196766934369378</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.097772505962496</v>
+        <v>6.611116510389138</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6213031815995862</v>
+        <v>1.914159813775981</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07358151315382599</v>
+        <v>0.2547773633220487</v>
       </c>
       <c r="D15">
-        <v>0.2419512892907676</v>
+        <v>0.5570857649331629</v>
       </c>
       <c r="E15">
-        <v>0.093949291338987</v>
+        <v>0.2859195590606589</v>
       </c>
       <c r="F15">
-        <v>4.534311527721741</v>
+        <v>10.9087041699168</v>
       </c>
       <c r="G15">
-        <v>0.002480553031424636</v>
+        <v>0.0007214214789294937</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.080935606740013</v>
+        <v>6.519642631859369</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6162172693285015</v>
+        <v>1.88796345238076</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06929390018628112</v>
+        <v>0.2352567976609379</v>
       </c>
       <c r="D16">
-        <v>0.2338860052469443</v>
+        <v>0.5200463611410271</v>
       </c>
       <c r="E16">
-        <v>0.0892754393910522</v>
+        <v>0.264259414059218</v>
       </c>
       <c r="F16">
-        <v>4.368349700961573</v>
+        <v>10.13417013553047</v>
       </c>
       <c r="G16">
-        <v>0.00248503291086338</v>
+        <v>0.0007313536754120845</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.984974241123211</v>
+        <v>6.006793813555475</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5872034215242081</v>
+        <v>1.74102360070286</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06667209563741494</v>
+        <v>0.2235892080229291</v>
       </c>
       <c r="D17">
-        <v>0.2289490137497694</v>
+        <v>0.4980159962548214</v>
       </c>
       <c r="E17">
-        <v>0.08641926417762136</v>
+        <v>0.251342206155158</v>
       </c>
       <c r="F17">
-        <v>4.266957419007724</v>
+        <v>9.672462892693289</v>
       </c>
       <c r="G17">
-        <v>0.002487836971054906</v>
+        <v>0.0007373997272611148</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.926567545999092</v>
+        <v>5.701287806095593</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5695200971510701</v>
+        <v>1.653436398895124</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06516714776611821</v>
+        <v>0.2169790981546385</v>
       </c>
       <c r="D18">
-        <v>0.2261131062799109</v>
+        <v>0.4855711611975835</v>
       </c>
       <c r="E18">
-        <v>0.08478042833534971</v>
+        <v>0.2440341174721254</v>
       </c>
       <c r="F18">
-        <v>4.208789568190753</v>
+        <v>9.411313132050765</v>
       </c>
       <c r="G18">
-        <v>0.00248947037135564</v>
+        <v>0.0007408644234646042</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.893141499546289</v>
+        <v>5.528548417824425</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.559391030537526</v>
+        <v>1.603895395440617</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06465811354667039</v>
+        <v>0.2147572677910432</v>
       </c>
       <c r="D19">
-        <v>0.2251535320619951</v>
+        <v>0.481394019616971</v>
       </c>
       <c r="E19">
-        <v>0.08422621638071348</v>
+        <v>0.2415793249714113</v>
       </c>
       <c r="F19">
-        <v>4.189120370911098</v>
+        <v>9.323604044669537</v>
       </c>
       <c r="G19">
-        <v>0.002490026954100814</v>
+        <v>0.0007420356932705438</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.881852668380873</v>
+        <v>5.470541588924959</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5559686434110773</v>
+        <v>1.587256494328585</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06695087425708834</v>
+        <v>0.2248205527762792</v>
       </c>
       <c r="D20">
-        <v>0.229474174376378</v>
+        <v>0.5003371399527055</v>
       </c>
       <c r="E20">
-        <v>0.08672289648875875</v>
+        <v>0.252704375496279</v>
       </c>
       <c r="F20">
-        <v>4.277735154178572</v>
+        <v>9.721144604364525</v>
       </c>
       <c r="G20">
-        <v>0.002487536345973029</v>
+        <v>0.0007367575370269339</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.932767611977454</v>
+        <v>5.733493290137119</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5713981654786835</v>
+        <v>1.662671434263189</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07469118772013417</v>
+        <v>0.259923281118418</v>
       </c>
       <c r="D21">
-        <v>0.2440371300255038</v>
+        <v>0.566887568536913</v>
       </c>
       <c r="E21">
-        <v>0.09515950586816047</v>
+        <v>0.2916394512496154</v>
       </c>
       <c r="F21">
-        <v>4.577292727815632</v>
+        <v>11.11330302805573</v>
       </c>
       <c r="G21">
-        <v>0.002479413606278121</v>
+        <v>0.0007188386586701361</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.10585560096365</v>
+        <v>6.655197059366174</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6237443624669226</v>
+        <v>1.926782261014807</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07977879050326919</v>
+        <v>0.2840474892936413</v>
       </c>
       <c r="D22">
-        <v>0.2535933053540873</v>
+        <v>0.6130474299131095</v>
       </c>
       <c r="E22">
-        <v>0.1007109780699054</v>
+        <v>0.3185082440237608</v>
       </c>
       <c r="F22">
-        <v>4.77449519497776</v>
+        <v>12.0747293227185</v>
       </c>
       <c r="G22">
-        <v>0.002474286628953603</v>
+        <v>0.0007069099276144404</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.220517582425941</v>
+        <v>7.292697681561378</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6583420994964797</v>
+        <v>2.109227801740715</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07706071465536013</v>
+        <v>0.2710477659740889</v>
       </c>
       <c r="D23">
-        <v>0.2484892174161075</v>
+        <v>0.5881307236035127</v>
       </c>
       <c r="E23">
-        <v>0.09774448988449791</v>
+        <v>0.3040186404702538</v>
       </c>
       <c r="F23">
-        <v>4.66911000531519</v>
+        <v>11.55619064220974</v>
       </c>
       <c r="G23">
-        <v>0.002477006442614239</v>
+        <v>0.0007133022415349668</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.15917736491906</v>
+        <v>6.948755432196549</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6398406230615592</v>
+        <v>2.010819453070866</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06682483110319026</v>
+        <v>0.2242635602485166</v>
       </c>
       <c r="D24">
-        <v>0.2292367417322794</v>
+        <v>0.4992870699566652</v>
       </c>
       <c r="E24">
-        <v>0.08658561432593359</v>
+        <v>0.2520881740507974</v>
       </c>
       <c r="F24">
-        <v>4.272862155060949</v>
+        <v>9.69912235836739</v>
       </c>
       <c r="G24">
-        <v>0.002487672192154316</v>
+        <v>0.0007370479053805258</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.929964086872189</v>
+        <v>5.718924244136701</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5705489747141002</v>
+        <v>1.658493763225906</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05589915484209484</v>
+        <v>0.1775615850126542</v>
       </c>
       <c r="D25">
-        <v>0.2086088988375536</v>
+        <v>0.4119086913728438</v>
       </c>
       <c r="E25">
-        <v>0.07469897424857663</v>
+        <v>0.2006119279981533</v>
       </c>
       <c r="F25">
-        <v>3.85114077886746</v>
+        <v>7.860764305445826</v>
       </c>
       <c r="G25">
-        <v>0.002499964650560755</v>
+        <v>0.0007622034703730651</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.689116059873072</v>
+        <v>4.503615485825094</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4974014779592295</v>
+        <v>1.309704826647405</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1453022217279454</v>
+        <v>0.2294954706951273</v>
       </c>
       <c r="D2">
-        <v>0.3523362277307314</v>
+        <v>0.06824177318073055</v>
       </c>
       <c r="E2">
-        <v>0.1652934641973118</v>
+        <v>0.1030242505458077</v>
       </c>
       <c r="F2">
-        <v>6.601251529869756</v>
+        <v>0.4591871463100219</v>
       </c>
       <c r="G2">
-        <v>0.0007807334908611447</v>
+        <v>0.3551732866581787</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001276260359142078</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001087039719339877</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3016060030044372</v>
       </c>
       <c r="K2">
-        <v>3.67154398934764</v>
+        <v>0.449484570891947</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.070591786449569</v>
+        <v>2.347010020942491</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0954877747725611</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5818794138066039</v>
+      </c>
+      <c r="P2">
+        <v>0.9593503866487794</v>
+      </c>
+      <c r="Q2">
+        <v>1.332900082054678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1243533777237644</v>
+        <v>0.2115320488786381</v>
       </c>
       <c r="D3">
-        <v>0.3140047170663109</v>
+        <v>0.06090124864392266</v>
       </c>
       <c r="E3">
-        <v>0.1424772594406924</v>
+        <v>0.09591281581502287</v>
       </c>
       <c r="F3">
-        <v>5.788593446007582</v>
+        <v>0.4315658120532575</v>
       </c>
       <c r="G3">
-        <v>0.0007934462348647766</v>
+        <v>0.3363865668951433</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0005292461281646288</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005750478767021505</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2966209537526368</v>
       </c>
       <c r="K3">
-        <v>3.134663450306391</v>
+        <v>0.4289368697724711</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9161906592107556</v>
+        <v>2.047453470689135</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.08973316296713563</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5084050878025224</v>
+      </c>
+      <c r="P3">
+        <v>0.9487385653980454</v>
+      </c>
+      <c r="Q3">
+        <v>1.282367397691829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1118321155366289</v>
+        <v>0.2002660419355919</v>
       </c>
       <c r="D4">
-        <v>0.2912304506935897</v>
+        <v>0.05639162469277181</v>
       </c>
       <c r="E4">
-        <v>0.1288901027058778</v>
+        <v>0.09150253583529278</v>
       </c>
       <c r="F4">
-        <v>5.305112587589662</v>
+        <v>0.4150000644099237</v>
       </c>
       <c r="G4">
-        <v>0.0008013678716335013</v>
+        <v>0.3251602273385785</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0009284668188310752</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004448471677935828</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.293784983718723</v>
       </c>
       <c r="K4">
-        <v>2.815172424606232</v>
+        <v>0.4164645118387433</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8242693667318193</v>
+        <v>1.862812110392383</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08620943287763083</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4631104666173229</v>
+      </c>
+      <c r="P4">
+        <v>0.9428934446059429</v>
+      </c>
+      <c r="Q4">
+        <v>1.252457919585538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.106801462039158</v>
+        <v>0.1951363411589568</v>
       </c>
       <c r="D5">
-        <v>0.2821097742166643</v>
+        <v>0.05459981791705104</v>
       </c>
       <c r="E5">
-        <v>0.1234426881937232</v>
+        <v>0.08962516377469498</v>
       </c>
       <c r="F5">
-        <v>5.111385038632847</v>
+        <v>0.4080132723567331</v>
       </c>
       <c r="G5">
-        <v>0.0008046302391818403</v>
+        <v>0.3203278412840618</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001129467533082518</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005004640466879096</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2925155111854139</v>
       </c>
       <c r="K5">
-        <v>2.687127169296133</v>
+        <v>0.4109450855919405</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7874216784671688</v>
+        <v>1.786771868143887</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08482791302745696</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4443378845566102</v>
+      </c>
+      <c r="P5">
+        <v>0.9409671521288558</v>
+      </c>
+      <c r="Q5">
+        <v>1.239483024409338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1059700898912155</v>
+        <v>0.1936953808522475</v>
       </c>
       <c r="D6">
-        <v>0.2806041118686977</v>
+        <v>0.05435980298459953</v>
       </c>
       <c r="E6">
-        <v>0.1225431037153228</v>
+        <v>0.08922856055219697</v>
       </c>
       <c r="F6">
-        <v>5.079399542577249</v>
+        <v>0.4064551419619846</v>
       </c>
       <c r="G6">
-        <v>0.000805174157401677</v>
+        <v>0.3191253061118289</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.00116706278464096</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0005985399048942242</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2921020414347808</v>
       </c>
       <c r="K6">
-        <v>2.665984383297996</v>
+        <v>0.4094550795636387</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7813370013235783</v>
+        <v>1.773381050994715</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08466328177220817</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4408895417152081</v>
+      </c>
+      <c r="P6">
+        <v>0.9410154696219166</v>
+      </c>
+      <c r="Q6">
+        <v>1.236055433346863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1117639966431625</v>
+        <v>0.1985923432119989</v>
       </c>
       <c r="D7">
-        <v>0.2911068368643015</v>
+        <v>0.05652532207218286</v>
       </c>
       <c r="E7">
-        <v>0.1288162952824017</v>
+        <v>0.09124726844889608</v>
       </c>
       <c r="F7">
-        <v>5.302487310345612</v>
+        <v>0.4138022816273903</v>
       </c>
       <c r="G7">
-        <v>0.0008014117240450647</v>
+        <v>0.3239890861253514</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0009358957935663437</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006652622774474537</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2932054489020146</v>
       </c>
       <c r="K7">
-        <v>2.81343735216069</v>
+        <v>0.4148162812299567</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8237700916908324</v>
+        <v>1.859722219192918</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08636799855944233</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4619578179403021</v>
+      </c>
+      <c r="P7">
+        <v>0.9438561384231789</v>
+      </c>
+      <c r="Q7">
+        <v>1.248759703423048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1379991977223511</v>
+        <v>0.2212132869526044</v>
       </c>
       <c r="D8">
-        <v>0.3389412479689327</v>
+        <v>0.06592246735684171</v>
       </c>
       <c r="E8">
-        <v>0.1573281056321321</v>
+        <v>0.1002765993264347</v>
       </c>
       <c r="F8">
-        <v>6.317444226816093</v>
+        <v>0.4481141827033355</v>
       </c>
       <c r="G8">
-        <v>0.0007850960422029684</v>
+        <v>0.3471620038091316</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002364597293864623</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00113108794848138</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2990966107083537</v>
       </c>
       <c r="K8">
-        <v>3.484059069863747</v>
+        <v>0.4402808785598253</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.016682930379915</v>
+        <v>2.241104164205979</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09373856935066627</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5553800997248644</v>
+      </c>
+      <c r="P8">
+        <v>0.9569026302645227</v>
+      </c>
+      <c r="Q8">
+        <v>1.310570357877324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1928992621944019</v>
+        <v>0.2665742801178652</v>
       </c>
       <c r="D9">
-        <v>0.4404589244972499</v>
+        <v>0.08406553785013671</v>
       </c>
       <c r="E9">
-        <v>0.2174748489660132</v>
+        <v>0.1180617800246786</v>
       </c>
       <c r="F9">
-        <v>8.462676724372443</v>
+        <v>0.5207589572220996</v>
       </c>
       <c r="G9">
-        <v>0.0007537515384511912</v>
+        <v>0.3972529066284523</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001546107198642233</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003281677382911852</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3135298410233531</v>
       </c>
       <c r="K9">
-        <v>4.901370658778717</v>
+        <v>0.4942959652632695</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.42392195898752</v>
+        <v>2.987280174981748</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1079798023310374</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7388274287967391</v>
+      </c>
+      <c r="P9">
+        <v>0.9862049020668024</v>
+      </c>
+      <c r="Q9">
+        <v>1.447609186963831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2366026627218645</v>
+        <v>0.2926927332970735</v>
       </c>
       <c r="D10">
-        <v>0.5225928071750445</v>
+        <v>0.0982994330009177</v>
       </c>
       <c r="E10">
-        <v>0.2657508480807493</v>
+        <v>0.1260975659661057</v>
       </c>
       <c r="F10">
-        <v>10.18748883856856</v>
+        <v>0.5707207744494269</v>
       </c>
       <c r="G10">
-        <v>0.0007306617298133106</v>
+        <v>0.43015688619721</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001108610175252878</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.006000907704654779</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3224938660272869</v>
       </c>
       <c r="K10">
-        <v>6.042083560216724</v>
+        <v>0.5275826531437957</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.751138432034779</v>
+        <v>3.525084253671764</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1124348420547037</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8599043603793035</v>
+      </c>
+      <c r="P10">
+        <v>1.018373015422299</v>
+      </c>
+      <c r="Q10">
+        <v>1.536555260570253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2575847649526537</v>
+        <v>0.2586392063264071</v>
       </c>
       <c r="D11">
-        <v>0.5624312831017448</v>
+        <v>0.1122536622164461</v>
       </c>
       <c r="E11">
-        <v>0.2890395901296827</v>
+        <v>0.09364179821704255</v>
       </c>
       <c r="F11">
-        <v>11.0203035353295</v>
+        <v>0.5465579799562477</v>
       </c>
       <c r="G11">
-        <v>0.0007200106441834576</v>
+        <v>0.3986450213428441</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01961101171364277</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.007251175644175767</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3033019449952121</v>
       </c>
       <c r="K11">
-        <v>6.593576904459781</v>
+        <v>0.4847800219394784</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.909137105439271</v>
+        <v>3.709567037626016</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07247292577600106</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8063938976726917</v>
+      </c>
+      <c r="P11">
+        <v>1.094674572108374</v>
+      </c>
+      <c r="Q11">
+        <v>1.429729608811499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2657285847115958</v>
+        <v>0.2294579280384426</v>
       </c>
       <c r="D12">
-        <v>0.5779641641714477</v>
+        <v>0.121199636728349</v>
       </c>
       <c r="E12">
-        <v>0.2980971676448192</v>
+        <v>0.07202396231459218</v>
       </c>
       <c r="F12">
-        <v>11.34432460656342</v>
+        <v>0.5172384499662925</v>
       </c>
       <c r="G12">
-        <v>0.0007159416065041084</v>
+        <v>0.3673620753416458</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05814712470334626</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.007348000048799541</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2861975904883849</v>
       </c>
       <c r="K12">
-        <v>6.808302086828007</v>
+        <v>0.4452048596986842</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.970616810231689</v>
+        <v>3.754005506758517</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05351493674223384</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7389284602679567</v>
+      </c>
+      <c r="P12">
+        <v>1.155019135515587</v>
+      </c>
+      <c r="Q12">
+        <v>1.327652951660554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.263965101138993</v>
+        <v>0.1999631878829291</v>
       </c>
       <c r="D13">
-        <v>0.5745973065032501</v>
+        <v>0.1269680871907894</v>
       </c>
       <c r="E13">
-        <v>0.2961349544815235</v>
+        <v>0.05711800109437171</v>
       </c>
       <c r="F13">
-        <v>11.27412397640165</v>
+        <v>0.4804375117569393</v>
       </c>
       <c r="G13">
-        <v>0.0007168198049272191</v>
+        <v>0.3326676754502103</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1136798538252464</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006852783031015441</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2687811603604047</v>
       </c>
       <c r="K13">
-        <v>6.761772877201395</v>
+        <v>0.4034034417798438</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.957296478808203</v>
+        <v>3.689586828697031</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04964614204375106</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.655897099449291</v>
+      </c>
+      <c r="P13">
+        <v>1.207035636773426</v>
+      </c>
+      <c r="Q13">
+        <v>1.217609904656371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2582505221098756</v>
+        <v>0.1793543653934222</v>
       </c>
       <c r="D14">
-        <v>0.5636996228777207</v>
+        <v>0.1296260310814858</v>
       </c>
       <c r="E14">
-        <v>0.2897796642389991</v>
+        <v>0.05068962424800016</v>
       </c>
       <c r="F14">
-        <v>11.0467761414954</v>
+        <v>0.451230263134903</v>
       </c>
       <c r="G14">
-        <v>0.0007196766934369378</v>
+        <v>0.3068558128469974</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1628548024161773</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.006333755369043459</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2564283086886334</v>
       </c>
       <c r="K14">
-        <v>6.611116510389138</v>
+        <v>0.3731503767150031</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.914159813775981</v>
+        <v>3.594709497783469</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05575375972763119</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5913237428676013</v>
+      </c>
+      <c r="P14">
+        <v>1.240090248396129</v>
+      </c>
+      <c r="Q14">
+        <v>1.136969985422439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2547773633220487</v>
+        <v>0.1736004472487522</v>
       </c>
       <c r="D15">
-        <v>0.5570857649331629</v>
+        <v>0.1296016079245703</v>
       </c>
       <c r="E15">
-        <v>0.2859195590606589</v>
+        <v>0.04962347480616369</v>
       </c>
       <c r="F15">
-        <v>10.9087041699168</v>
+        <v>0.4421999369258955</v>
       </c>
       <c r="G15">
-        <v>0.0007214214789294937</v>
+        <v>0.2994609874794278</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752899197038289</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.006186140527563389</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2531749063376338</v>
       </c>
       <c r="K15">
-        <v>6.519642631859369</v>
+        <v>0.3647366236979863</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.88796345238076</v>
+        <v>3.547761547549612</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05828436790594438</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.571907854860541</v>
+      </c>
+      <c r="P15">
+        <v>1.246147284072507</v>
+      </c>
+      <c r="Q15">
+        <v>1.114449285053539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2352567976609379</v>
+        <v>0.1684471135563044</v>
       </c>
       <c r="D16">
-        <v>0.5200463611410271</v>
+        <v>0.1221651181445083</v>
       </c>
       <c r="E16">
-        <v>0.264259414059218</v>
+        <v>0.04948011688499077</v>
       </c>
       <c r="F16">
-        <v>10.13417013553047</v>
+        <v>0.4277043264510425</v>
       </c>
       <c r="G16">
-        <v>0.0007313536754120845</v>
+        <v>0.2919693547189723</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621890563225463</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005186543911205987</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2525309357862326</v>
       </c>
       <c r="K16">
-        <v>6.006793813555475</v>
+        <v>0.358612972221227</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.74102360070286</v>
+        <v>3.329203974707013</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05707019070793606</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5386386829566732</v>
+      </c>
+      <c r="P16">
+        <v>1.21890659866844</v>
+      </c>
+      <c r="Q16">
+        <v>1.097042559974753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2235892080229291</v>
+        <v>0.1749504931957091</v>
       </c>
       <c r="D17">
-        <v>0.4980159962548214</v>
+        <v>0.1150725629866116</v>
       </c>
       <c r="E17">
-        <v>0.251342206155158</v>
+        <v>0.0520710344469788</v>
       </c>
       <c r="F17">
-        <v>9.672462892693289</v>
+        <v>0.4320700834127535</v>
       </c>
       <c r="G17">
-        <v>0.0007373997272611148</v>
+        <v>0.2998219381224416</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242289192763337</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004731794364372988</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2585811941365037</v>
       </c>
       <c r="K17">
-        <v>5.701287806095593</v>
+        <v>0.3697332121088976</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.653436398895124</v>
+        <v>3.212053480953671</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05155617957487735</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5467812333686481</v>
+      </c>
+      <c r="P17">
+        <v>1.180864442335263</v>
+      </c>
+      <c r="Q17">
+        <v>1.126251766383291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2169790981546385</v>
+        <v>0.1945747136928446</v>
       </c>
       <c r="D18">
-        <v>0.4855711611975835</v>
+        <v>0.1074711450426591</v>
       </c>
       <c r="E18">
-        <v>0.2440341174721254</v>
+        <v>0.06090322858701303</v>
       </c>
       <c r="F18">
-        <v>9.411313132050765</v>
+        <v>0.4540331415208527</v>
       </c>
       <c r="G18">
-        <v>0.0007408644234646042</v>
+        <v>0.3229259695259756</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07137593430500289</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004396536232119885</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2715916345155378</v>
       </c>
       <c r="K18">
-        <v>5.528548417824425</v>
+        <v>0.3987628851165894</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.603895395440617</v>
+        <v>3.170041099446223</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04947537601600382</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.593443625322827</v>
+      </c>
+      <c r="P18">
+        <v>1.129788093977695</v>
+      </c>
+      <c r="Q18">
+        <v>1.202419490348618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2147572677910432</v>
+        <v>0.2233429738294603</v>
       </c>
       <c r="D19">
-        <v>0.481394019616971</v>
+        <v>0.100578663795595</v>
       </c>
       <c r="E19">
-        <v>0.2415793249714113</v>
+        <v>0.07925030597796656</v>
       </c>
       <c r="F19">
-        <v>9.323604044669537</v>
+        <v>0.4870876908041168</v>
       </c>
       <c r="G19">
-        <v>0.0007420356932705438</v>
+        <v>0.3556705997027336</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02626391630032288</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004680219510172279</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2886627354130979</v>
       </c>
       <c r="K19">
-        <v>5.470541588924959</v>
+        <v>0.4389420175414571</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.587256494328585</v>
+        <v>3.18710479386624</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0617217403375605</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6686415312492713</v>
+      </c>
+      <c r="P19">
+        <v>1.076737700418448</v>
+      </c>
+      <c r="Q19">
+        <v>1.307574712068231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2248205527762792</v>
+        <v>0.2806832298954731</v>
       </c>
       <c r="D20">
-        <v>0.5003371399527055</v>
+        <v>0.095103718814606</v>
       </c>
       <c r="E20">
-        <v>0.252704375496279</v>
+        <v>0.1230944017351305</v>
       </c>
       <c r="F20">
-        <v>9.721144604364525</v>
+        <v>0.5537435916196785</v>
       </c>
       <c r="G20">
-        <v>0.0007367575370269339</v>
+        <v>0.4176985897038321</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00076595243815758</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.005879825262441685</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3182006766979981</v>
       </c>
       <c r="K20">
-        <v>5.733493290137119</v>
+        <v>0.5135945293934228</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.662671434263189</v>
+        <v>3.377142501066942</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1115393896696943</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8247818981251598</v>
+      </c>
+      <c r="P20">
+        <v>1.013317723030099</v>
+      </c>
+      <c r="Q20">
+        <v>1.501044658182252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.259923281118418</v>
+        <v>0.309447174498473</v>
       </c>
       <c r="D21">
-        <v>0.566887568536913</v>
+        <v>0.1047189753002442</v>
       </c>
       <c r="E21">
-        <v>0.2916394512496154</v>
+        <v>0.1366765867246578</v>
       </c>
       <c r="F21">
-        <v>11.11330302805573</v>
+        <v>0.6018657197431523</v>
       </c>
       <c r="G21">
-        <v>0.0007188386586701361</v>
+        <v>0.4525505550299442</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001662255622779218</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.008306686696397669</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3299841819656137</v>
       </c>
       <c r="K21">
-        <v>6.655197059366174</v>
+        <v>0.5506307558116461</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.926782261014807</v>
+        <v>3.800146052392847</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1245342446196531</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9373562881015829</v>
+      </c>
+      <c r="P21">
+        <v>1.028831997132812</v>
+      </c>
+      <c r="Q21">
+        <v>1.59991977846397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2840474892936413</v>
+        <v>0.3275050935870354</v>
       </c>
       <c r="D22">
-        <v>0.6130474299131095</v>
+        <v>0.1112071533219492</v>
       </c>
       <c r="E22">
-        <v>0.3185082440237608</v>
+        <v>0.1434217732657466</v>
       </c>
       <c r="F22">
-        <v>12.0747293227185</v>
+        <v>0.6326389871469686</v>
       </c>
       <c r="G22">
-        <v>0.0007069099276144404</v>
+        <v>0.4745470668975997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002501943676873508</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009841595074290055</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3373434930479817</v>
       </c>
       <c r="K22">
-        <v>7.292697681561378</v>
+        <v>0.5737955367755063</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.109227801740715</v>
+        <v>4.075751726984663</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1296336825699314</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.005696944208239</v>
+      </c>
+      <c r="P22">
+        <v>1.041546238646063</v>
+      </c>
+      <c r="Q22">
+        <v>1.662160926195185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2710477659740889</v>
+        <v>0.319805846385762</v>
       </c>
       <c r="D23">
-        <v>0.5881307236035127</v>
+        <v>0.1075475623704065</v>
       </c>
       <c r="E23">
-        <v>0.3040186404702538</v>
+        <v>0.1400957557520783</v>
       </c>
       <c r="F23">
-        <v>11.55619064220974</v>
+        <v>0.6174760592925281</v>
       </c>
       <c r="G23">
-        <v>0.0007133022415349668</v>
+        <v>0.4640778847419682</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002041137418295702</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.008743490039349489</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3340480682324625</v>
       </c>
       <c r="K23">
-        <v>6.948755432196549</v>
+        <v>0.5632777857632618</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.010819453070866</v>
+        <v>3.931235017122788</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1266879305179813</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9703315338697607</v>
+      </c>
+      <c r="P23">
+        <v>1.033373142943546</v>
+      </c>
+      <c r="Q23">
+        <v>1.632960831232083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2242635602485166</v>
+        <v>0.287231343226054</v>
       </c>
       <c r="D24">
-        <v>0.4992870699566652</v>
+        <v>0.09402408641552995</v>
       </c>
       <c r="E24">
-        <v>0.2520881740507974</v>
+        <v>0.1270281915448166</v>
       </c>
       <c r="F24">
-        <v>9.69912235836739</v>
+        <v>0.5591563413367666</v>
       </c>
       <c r="G24">
-        <v>0.0007370479053805258</v>
+        <v>0.4233179648491756</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0006918064061132156</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005467736394701994</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3211115337871036</v>
       </c>
       <c r="K24">
-        <v>5.718924244136701</v>
+        <v>0.5210118153742513</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.658493763225906</v>
+        <v>3.379129668731935</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1159473192886011</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8344797957749037</v>
+      </c>
+      <c r="P24">
+        <v>1.006082601381507</v>
+      </c>
+      <c r="Q24">
+        <v>1.519050423131176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1775615850126542</v>
+        <v>0.2515790030400211</v>
       </c>
       <c r="D25">
-        <v>0.4119086913728438</v>
+        <v>0.07944724990893803</v>
       </c>
       <c r="E25">
-        <v>0.2006119279981533</v>
+        <v>0.112867660310787</v>
       </c>
       <c r="F25">
-        <v>7.860764305445826</v>
+        <v>0.4987010742637636</v>
       </c>
       <c r="G25">
-        <v>0.0007622034703730651</v>
+        <v>0.3813771269500847</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.508398372347287E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002887935757854621</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3083985108027889</v>
       </c>
       <c r="K25">
-        <v>4.503615485825094</v>
+        <v>0.476676437782956</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.309704826647405</v>
+        <v>2.782141095242395</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1044409265627095</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.6876771613255599</v>
+      </c>
+      <c r="P25">
+        <v>0.979567911968104</v>
+      </c>
+      <c r="Q25">
+        <v>1.403044457989978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2294954706951273</v>
+        <v>0.1721243226337066</v>
       </c>
       <c r="D2">
-        <v>0.06824177318073055</v>
+        <v>0.07274183138959955</v>
       </c>
       <c r="E2">
-        <v>0.1030242505458077</v>
+        <v>0.09521795017392876</v>
       </c>
       <c r="F2">
-        <v>0.4591871463100219</v>
+        <v>0.4250354954550488</v>
       </c>
       <c r="G2">
-        <v>0.3551732866581787</v>
+        <v>0.302682749541141</v>
       </c>
       <c r="H2">
-        <v>0.0001276260359142078</v>
+        <v>9.530954118086576E-05</v>
       </c>
       <c r="I2">
-        <v>0.001087039719339877</v>
+        <v>0.001353602631275486</v>
       </c>
       <c r="J2">
-        <v>0.3016060030044372</v>
+        <v>0.3198428830145872</v>
       </c>
       <c r="K2">
-        <v>0.449484570891947</v>
+        <v>0.3969000546359212</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2036626132443367</v>
       </c>
       <c r="M2">
-        <v>2.347010020942491</v>
+        <v>0.1058333980836323</v>
       </c>
       <c r="N2">
-        <v>0.0954877747725611</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5818794138066039</v>
+        <v>2.288327859679924</v>
       </c>
       <c r="P2">
-        <v>0.9593503866487794</v>
+        <v>0.1047954072747999</v>
       </c>
       <c r="Q2">
-        <v>1.332900082054678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5551296855506322</v>
+      </c>
+      <c r="R2">
+        <v>0.9869208007054908</v>
+      </c>
+      <c r="S2">
+        <v>1.222190427401941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2115320488786381</v>
+        <v>0.1607210355462882</v>
       </c>
       <c r="D3">
-        <v>0.06090124864392266</v>
+        <v>0.06442611093893902</v>
       </c>
       <c r="E3">
-        <v>0.09591281581502287</v>
+        <v>0.0892539598513622</v>
       </c>
       <c r="F3">
-        <v>0.4315658120532575</v>
+        <v>0.4020968103646965</v>
       </c>
       <c r="G3">
-        <v>0.3363865668951433</v>
+        <v>0.2889272210195841</v>
       </c>
       <c r="H3">
-        <v>0.0005292461281646288</v>
+        <v>0.0004208550127583477</v>
       </c>
       <c r="I3">
-        <v>0.0005750478767021505</v>
+        <v>0.000805409241634969</v>
       </c>
       <c r="J3">
-        <v>0.2966209537526368</v>
+        <v>0.3149205148498382</v>
       </c>
       <c r="K3">
-        <v>0.4289368697724711</v>
+        <v>0.3825267483889832</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2046499642519422</v>
       </c>
       <c r="M3">
-        <v>2.047453470689135</v>
+        <v>0.09518588127126293</v>
       </c>
       <c r="N3">
-        <v>0.08973316296713563</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5084050878025224</v>
+        <v>2.000401128302315</v>
       </c>
       <c r="P3">
-        <v>0.9487385653980454</v>
+        <v>0.09853604727060983</v>
       </c>
       <c r="Q3">
-        <v>1.282367397691829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4863398393682417</v>
+      </c>
+      <c r="R3">
+        <v>0.9690726656663458</v>
+      </c>
+      <c r="S3">
+        <v>1.185437230248041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2002660419355919</v>
+        <v>0.1534556256699915</v>
       </c>
       <c r="D4">
-        <v>0.05639162469277181</v>
+        <v>0.05932944033459364</v>
       </c>
       <c r="E4">
-        <v>0.09150253583529278</v>
+        <v>0.08554014381598307</v>
       </c>
       <c r="F4">
-        <v>0.4150000644099237</v>
+        <v>0.3883063909043329</v>
       </c>
       <c r="G4">
-        <v>0.3251602273385785</v>
+        <v>0.2807766135275642</v>
       </c>
       <c r="H4">
-        <v>0.0009284668188310752</v>
+        <v>0.0007493576314819839</v>
       </c>
       <c r="I4">
-        <v>0.0004448471677935828</v>
+        <v>0.0006181621557050931</v>
       </c>
       <c r="J4">
-        <v>0.293784983718723</v>
+        <v>0.3119667020172088</v>
       </c>
       <c r="K4">
-        <v>0.4164645118387433</v>
+        <v>0.3737315253667184</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2051765460363093</v>
       </c>
       <c r="M4">
-        <v>1.862812110392383</v>
+        <v>0.08925599631548309</v>
       </c>
       <c r="N4">
-        <v>0.08620943287763083</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4631104666173229</v>
+        <v>1.822734590909988</v>
       </c>
       <c r="P4">
-        <v>0.9428934446059429</v>
+        <v>0.09472606925253757</v>
       </c>
       <c r="Q4">
-        <v>1.252457919585538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4438585945743938</v>
+      </c>
+      <c r="R4">
+        <v>0.9588559585232872</v>
+      </c>
+      <c r="S4">
+        <v>1.16367781991967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1951363411589568</v>
+        <v>0.1500275285536006</v>
       </c>
       <c r="D5">
-        <v>0.05459981791705104</v>
+        <v>0.05730298647540621</v>
       </c>
       <c r="E5">
-        <v>0.08962516377469498</v>
+        <v>0.08394851598322006</v>
       </c>
       <c r="F5">
-        <v>0.4080132723567331</v>
+        <v>0.3824412597140068</v>
       </c>
       <c r="G5">
-        <v>0.3203278412840618</v>
+        <v>0.2772180839105758</v>
       </c>
       <c r="H5">
-        <v>0.001129467533082518</v>
+        <v>0.0009155708850469013</v>
       </c>
       <c r="I5">
-        <v>0.0005004640466879096</v>
+        <v>0.0006544589865624673</v>
       </c>
       <c r="J5">
-        <v>0.2925155111854139</v>
+        <v>0.3106124563894639</v>
       </c>
       <c r="K5">
-        <v>0.4109450855919405</v>
+        <v>0.3697195917845448</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2051668817719126</v>
       </c>
       <c r="M5">
-        <v>1.786771868143887</v>
+        <v>0.08686720354872435</v>
       </c>
       <c r="N5">
-        <v>0.08482791302745696</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4443378845566102</v>
+        <v>1.749509247562827</v>
       </c>
       <c r="P5">
-        <v>0.9409671521288558</v>
+        <v>0.09323739444608492</v>
       </c>
       <c r="Q5">
-        <v>1.239483024409338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.426224397029344</v>
+      </c>
+      <c r="R5">
+        <v>0.9551809483058875</v>
+      </c>
+      <c r="S5">
+        <v>1.154009774559384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1936953808522475</v>
+        <v>0.1489652602629619</v>
       </c>
       <c r="D6">
-        <v>0.05435980298459953</v>
+        <v>0.05702624423595637</v>
       </c>
       <c r="E6">
-        <v>0.08922856055219697</v>
+        <v>0.08360398552798998</v>
       </c>
       <c r="F6">
-        <v>0.4064551419619846</v>
+        <v>0.3810861915509207</v>
       </c>
       <c r="G6">
-        <v>0.3191253061118289</v>
+        <v>0.276256309842914</v>
       </c>
       <c r="H6">
-        <v>0.00116706278464096</v>
+        <v>0.0009467619389870174</v>
       </c>
       <c r="I6">
-        <v>0.0005985399048942242</v>
+        <v>0.0007653066434949451</v>
       </c>
       <c r="J6">
-        <v>0.2921020414347808</v>
+        <v>0.3101843196622411</v>
       </c>
       <c r="K6">
-        <v>0.4094550795636387</v>
+        <v>0.3685235654113264</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.204915308034348</v>
       </c>
       <c r="M6">
-        <v>1.773381050994715</v>
+        <v>0.08632713249891921</v>
       </c>
       <c r="N6">
-        <v>0.08466328177220817</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4408895417152081</v>
+        <v>1.736598755614523</v>
       </c>
       <c r="P6">
-        <v>0.9410154696219166</v>
+        <v>0.09305968542399157</v>
       </c>
       <c r="Q6">
-        <v>1.236055433346863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4229730021910285</v>
+      </c>
+      <c r="R6">
+        <v>0.9549579296955173</v>
+      </c>
+      <c r="S6">
+        <v>1.151201703098266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1985923432119989</v>
+        <v>0.1522009270404325</v>
       </c>
       <c r="D7">
-        <v>0.05652532207218286</v>
+        <v>0.05956593168762936</v>
       </c>
       <c r="E7">
-        <v>0.09124726844889608</v>
+        <v>0.08532712356042182</v>
       </c>
       <c r="F7">
-        <v>0.4138022816273903</v>
+        <v>0.3865357555815194</v>
       </c>
       <c r="G7">
-        <v>0.3239890861253514</v>
+        <v>0.2823016810742232</v>
       </c>
       <c r="H7">
-        <v>0.0009358957935663437</v>
+        <v>0.0007571898599840754</v>
       </c>
       <c r="I7">
-        <v>0.0006652622774474537</v>
+        <v>0.0008802851210756302</v>
       </c>
       <c r="J7">
-        <v>0.2932054489020146</v>
+        <v>0.3076424431622371</v>
       </c>
       <c r="K7">
-        <v>0.4148162812299567</v>
+        <v>0.3717520832360499</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2042928326210181</v>
       </c>
       <c r="M7">
-        <v>1.859722219192918</v>
+        <v>0.08864956317698258</v>
       </c>
       <c r="N7">
-        <v>0.08636799855944233</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4619578179403021</v>
+        <v>1.818326894106178</v>
       </c>
       <c r="P7">
-        <v>0.9438561384231789</v>
+        <v>0.09488705150787879</v>
       </c>
       <c r="Q7">
-        <v>1.248759703423048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4425542882816345</v>
+      </c>
+      <c r="R7">
+        <v>0.9604387841898827</v>
+      </c>
+      <c r="S7">
+        <v>1.158224737573107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2212132869526044</v>
+        <v>0.1669154633904668</v>
       </c>
       <c r="D8">
-        <v>0.06592246735684171</v>
+        <v>0.07043038677447555</v>
       </c>
       <c r="E8">
-        <v>0.1002765993264347</v>
+        <v>0.09297278890547744</v>
       </c>
       <c r="F8">
-        <v>0.4481141827033355</v>
+        <v>0.4135498802842577</v>
       </c>
       <c r="G8">
-        <v>0.3471620038091316</v>
+        <v>0.3052317351289773</v>
       </c>
       <c r="H8">
-        <v>0.0002364597293864623</v>
+        <v>0.0001849281136008241</v>
       </c>
       <c r="I8">
-        <v>0.00113108794848138</v>
+        <v>0.001441377329634896</v>
       </c>
       <c r="J8">
-        <v>0.2990966107083537</v>
+        <v>0.3051840677805515</v>
       </c>
       <c r="K8">
-        <v>0.4402808785598253</v>
+        <v>0.3884527712510142</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2025308369334624</v>
       </c>
       <c r="M8">
-        <v>2.241104164205979</v>
+        <v>0.1008870762315972</v>
       </c>
       <c r="N8">
-        <v>0.09373856935066627</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5553800997248644</v>
+        <v>2.181840096053918</v>
       </c>
       <c r="P8">
-        <v>0.9569026302645227</v>
+        <v>0.1028598393607609</v>
       </c>
       <c r="Q8">
-        <v>1.310570357877324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5296516301719052</v>
+      </c>
+      <c r="R8">
+        <v>0.9840813488115145</v>
+      </c>
+      <c r="S8">
+        <v>1.198330331742241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2665742801178652</v>
+        <v>0.1955778926761553</v>
       </c>
       <c r="D9">
-        <v>0.08406553785013671</v>
+        <v>0.09116967580406055</v>
       </c>
       <c r="E9">
-        <v>0.1180617800246786</v>
+        <v>0.1078576303022736</v>
       </c>
       <c r="F9">
-        <v>0.5207589572220996</v>
+        <v>0.4732617704473299</v>
       </c>
       <c r="G9">
-        <v>0.3972529066284523</v>
+        <v>0.3450463266425601</v>
       </c>
       <c r="H9">
-        <v>0.0001546107198642233</v>
+        <v>0.0001417987704759316</v>
       </c>
       <c r="I9">
-        <v>0.003281677382911852</v>
+        <v>0.003410731103127951</v>
       </c>
       <c r="J9">
-        <v>0.3135298410233531</v>
+        <v>0.3151646801268413</v>
       </c>
       <c r="K9">
-        <v>0.4942959652632695</v>
+        <v>0.4258205255647454</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2003312604763146</v>
       </c>
       <c r="M9">
-        <v>2.987280174981748</v>
+        <v>0.1311268030617434</v>
       </c>
       <c r="N9">
-        <v>0.1079798023310374</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7388274287967391</v>
+        <v>2.896556491297815</v>
       </c>
       <c r="P9">
-        <v>0.9862049020668024</v>
+        <v>0.1184753926383806</v>
       </c>
       <c r="Q9">
-        <v>1.447609186963831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.700816249338061</v>
+      </c>
+      <c r="R9">
+        <v>1.032463879067365</v>
+      </c>
+      <c r="S9">
+        <v>1.297071800002897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2926927332970735</v>
+        <v>0.2118500316455538</v>
       </c>
       <c r="D10">
-        <v>0.0982994330009177</v>
+        <v>0.1079745606166327</v>
       </c>
       <c r="E10">
-        <v>0.1260975659661057</v>
+        <v>0.114289711861975</v>
       </c>
       <c r="F10">
-        <v>0.5707207744494269</v>
+        <v>0.5101857275238046</v>
       </c>
       <c r="G10">
-        <v>0.43015688619721</v>
+        <v>0.3868790863273119</v>
       </c>
       <c r="H10">
-        <v>0.001108610175252878</v>
+        <v>0.0009785900152086136</v>
       </c>
       <c r="I10">
-        <v>0.006000907704654779</v>
+        <v>0.005793614684986181</v>
       </c>
       <c r="J10">
-        <v>0.3224938660272869</v>
+        <v>0.3003354273515271</v>
       </c>
       <c r="K10">
-        <v>0.5275826531437957</v>
+        <v>0.4448549489705798</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1952449981049718</v>
       </c>
       <c r="M10">
-        <v>3.525084253671764</v>
+        <v>0.1528672138071201</v>
       </c>
       <c r="N10">
-        <v>0.1124348420547037</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8599043603793035</v>
+        <v>3.402821216137568</v>
       </c>
       <c r="P10">
-        <v>1.018373015422299</v>
+        <v>0.1234614106733645</v>
       </c>
       <c r="Q10">
-        <v>1.536555260570253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8120898222635873</v>
+      </c>
+      <c r="R10">
+        <v>1.082949442286036</v>
+      </c>
+      <c r="S10">
+        <v>1.347305540688836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2586392063264071</v>
+        <v>0.1886556764089562</v>
       </c>
       <c r="D11">
-        <v>0.1122536622164461</v>
+        <v>0.12408693680851</v>
       </c>
       <c r="E11">
-        <v>0.09364179821704255</v>
+        <v>0.08472045500465164</v>
       </c>
       <c r="F11">
-        <v>0.5465579799562477</v>
+        <v>0.4804829620326387</v>
       </c>
       <c r="G11">
-        <v>0.3986450213428441</v>
+        <v>0.3921932570127069</v>
       </c>
       <c r="H11">
-        <v>0.01961101171364277</v>
+        <v>0.01945301137586597</v>
       </c>
       <c r="I11">
-        <v>0.007251175644175767</v>
+        <v>0.006986930610459297</v>
       </c>
       <c r="J11">
-        <v>0.3033019449952121</v>
+        <v>0.247629787785911</v>
       </c>
       <c r="K11">
-        <v>0.4847800219394784</v>
+        <v>0.4024175590990637</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1752144068921595</v>
       </c>
       <c r="M11">
-        <v>3.709567037626016</v>
+        <v>0.1422670873966645</v>
       </c>
       <c r="N11">
-        <v>0.07247292577600106</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8063938976726917</v>
+        <v>3.566814463595392</v>
       </c>
       <c r="P11">
-        <v>1.094674572108374</v>
+        <v>0.07893812535414924</v>
       </c>
       <c r="Q11">
-        <v>1.429729608811499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7585071845504245</v>
+      </c>
+      <c r="R11">
+        <v>1.175417215283815</v>
+      </c>
+      <c r="S11">
+        <v>1.227873722575595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2294579280384426</v>
+        <v>0.1691543778293862</v>
       </c>
       <c r="D12">
-        <v>0.121199636728349</v>
+        <v>0.1339260515661493</v>
       </c>
       <c r="E12">
-        <v>0.07202396231459218</v>
+        <v>0.06549611572488523</v>
       </c>
       <c r="F12">
-        <v>0.5172384499662925</v>
+        <v>0.451677595904961</v>
       </c>
       <c r="G12">
-        <v>0.3673620753416458</v>
+        <v>0.3789162672626816</v>
       </c>
       <c r="H12">
-        <v>0.05814712470334626</v>
+        <v>0.05799696804346155</v>
       </c>
       <c r="I12">
-        <v>0.007348000048799541</v>
+        <v>0.007052359542957021</v>
       </c>
       <c r="J12">
-        <v>0.2861975904883849</v>
+        <v>0.2221038493445917</v>
       </c>
       <c r="K12">
-        <v>0.4452048596986842</v>
+        <v>0.3677536826016166</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1615727155369804</v>
       </c>
       <c r="M12">
-        <v>3.754005506758517</v>
+        <v>0.1303144304929802</v>
       </c>
       <c r="N12">
-        <v>0.05351493674223384</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7389284602679567</v>
+        <v>3.605920924332793</v>
       </c>
       <c r="P12">
-        <v>1.155019135515587</v>
+        <v>0.05623338723309779</v>
       </c>
       <c r="Q12">
-        <v>1.327652951660554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.693768377014564</v>
+      </c>
+      <c r="R12">
+        <v>1.243115930438861</v>
+      </c>
+      <c r="S12">
+        <v>1.130963077637517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1999631878829291</v>
+        <v>0.1492427010523869</v>
       </c>
       <c r="D13">
-        <v>0.1269680871907894</v>
+        <v>0.1392646211759114</v>
       </c>
       <c r="E13">
-        <v>0.05711800109437171</v>
+        <v>0.05277251362160396</v>
       </c>
       <c r="F13">
-        <v>0.4804375117569393</v>
+        <v>0.4214152170582679</v>
       </c>
       <c r="G13">
-        <v>0.3326676754502103</v>
+        <v>0.3424696312263222</v>
       </c>
       <c r="H13">
-        <v>0.1136798538252464</v>
+        <v>0.1135649988122225</v>
       </c>
       <c r="I13">
-        <v>0.006852783031015441</v>
+        <v>0.006636083053250807</v>
       </c>
       <c r="J13">
-        <v>0.2687811603604047</v>
+        <v>0.2153122039381259</v>
       </c>
       <c r="K13">
-        <v>0.4034034417798438</v>
+        <v>0.3354763875261639</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1509373161213041</v>
       </c>
       <c r="M13">
-        <v>3.689586828697031</v>
+        <v>0.1163888626011804</v>
       </c>
       <c r="N13">
-        <v>0.04964614204375106</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.655897099449291</v>
+        <v>3.551608246862884</v>
       </c>
       <c r="P13">
-        <v>1.207035636773426</v>
+        <v>0.04916883479863854</v>
       </c>
       <c r="Q13">
-        <v>1.217609904656371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6160762373253945</v>
+      </c>
+      <c r="R13">
+        <v>1.293280972527</v>
+      </c>
+      <c r="S13">
+        <v>1.043556131210423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1793543653934222</v>
+        <v>0.1353095069669266</v>
       </c>
       <c r="D14">
-        <v>0.1296260310814858</v>
+        <v>0.140999306316985</v>
       </c>
       <c r="E14">
-        <v>0.05068962424800016</v>
+        <v>0.04778034479768567</v>
       </c>
       <c r="F14">
-        <v>0.451230263134903</v>
+        <v>0.3992055881378747</v>
       </c>
       <c r="G14">
-        <v>0.3068558128469974</v>
+        <v>0.3078791608977767</v>
       </c>
       <c r="H14">
-        <v>0.1628548024161773</v>
+        <v>0.1627712654762234</v>
       </c>
       <c r="I14">
-        <v>0.006333755369043459</v>
+        <v>0.006230241247012991</v>
       </c>
       <c r="J14">
-        <v>0.2564283086886334</v>
+        <v>0.2173527870001095</v>
       </c>
       <c r="K14">
-        <v>0.3731503767150031</v>
+        <v>0.313612365512995</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1445403443470497</v>
       </c>
       <c r="M14">
-        <v>3.594709497783469</v>
+        <v>0.1058064214892127</v>
       </c>
       <c r="N14">
-        <v>0.05575375972763119</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5913237428676013</v>
+        <v>3.47054520539308</v>
       </c>
       <c r="P14">
-        <v>1.240090248396129</v>
+        <v>0.05339131461968272</v>
       </c>
       <c r="Q14">
-        <v>1.136969985422439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5562395492465413</v>
+      </c>
+      <c r="R14">
+        <v>1.320606276968775</v>
+      </c>
+      <c r="S14">
+        <v>0.9854534998247857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1736004472487522</v>
+        <v>0.1313589608061747</v>
       </c>
       <c r="D15">
-        <v>0.1296016079245703</v>
+        <v>0.1404859302880226</v>
       </c>
       <c r="E15">
-        <v>0.04962347480616369</v>
+        <v>0.04706805088889499</v>
       </c>
       <c r="F15">
-        <v>0.4421999369258955</v>
+        <v>0.3929550248948246</v>
       </c>
       <c r="G15">
-        <v>0.2994609874794278</v>
+        <v>0.2953401554007868</v>
       </c>
       <c r="H15">
-        <v>0.1752899197038289</v>
+        <v>0.1752191377146914</v>
       </c>
       <c r="I15">
-        <v>0.006186140527563389</v>
+        <v>0.006153532096763392</v>
       </c>
       <c r="J15">
-        <v>0.2531749063376338</v>
+        <v>0.2207456898612037</v>
       </c>
       <c r="K15">
-        <v>0.3647366236979863</v>
+        <v>0.3080729870245271</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1432622026481596</v>
       </c>
       <c r="M15">
-        <v>3.547761547549612</v>
+        <v>0.1026293432496423</v>
       </c>
       <c r="N15">
-        <v>0.05828436790594438</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.571907854860541</v>
+        <v>3.429899431371609</v>
       </c>
       <c r="P15">
-        <v>1.246147284072507</v>
+        <v>0.05557534197565772</v>
       </c>
       <c r="Q15">
-        <v>1.114449285053539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5384528906511008</v>
+      </c>
+      <c r="R15">
+        <v>1.323396756056184</v>
+      </c>
+      <c r="S15">
+        <v>0.971438013621551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1684471135563044</v>
+        <v>0.1273713895373305</v>
       </c>
       <c r="D16">
-        <v>0.1221651181445083</v>
+        <v>0.1308283106274502</v>
       </c>
       <c r="E16">
-        <v>0.04948011688499077</v>
+        <v>0.04700869922093165</v>
       </c>
       <c r="F16">
-        <v>0.4277043264510425</v>
+        <v>0.3875696464903555</v>
       </c>
       <c r="G16">
-        <v>0.2919693547189723</v>
+        <v>0.263440405753343</v>
       </c>
       <c r="H16">
-        <v>0.1621890563225463</v>
+        <v>0.1621646848626881</v>
       </c>
       <c r="I16">
-        <v>0.005186543911205987</v>
+        <v>0.005361725821969365</v>
       </c>
       <c r="J16">
-        <v>0.2525309357862326</v>
+        <v>0.2485026839679847</v>
       </c>
       <c r="K16">
-        <v>0.358612972221227</v>
+        <v>0.3089739365628645</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1471235707584668</v>
       </c>
       <c r="M16">
-        <v>3.329203974707013</v>
+        <v>0.098047276319015</v>
       </c>
       <c r="N16">
-        <v>0.05707019070793606</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5386386829566732</v>
+        <v>3.236144511459713</v>
       </c>
       <c r="P16">
-        <v>1.21890659866844</v>
+        <v>0.05515492146795076</v>
       </c>
       <c r="Q16">
-        <v>1.097042559974753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5094569758140182</v>
+      </c>
+      <c r="R16">
+        <v>1.280441063468515</v>
+      </c>
+      <c r="S16">
+        <v>0.9796266404461278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1749504931957091</v>
+        <v>0.131422836951991</v>
       </c>
       <c r="D17">
-        <v>0.1150725629866116</v>
+        <v>0.1227838440194517</v>
       </c>
       <c r="E17">
-        <v>0.0520710344469788</v>
+        <v>0.04889327564097057</v>
       </c>
       <c r="F17">
-        <v>0.4320700834127535</v>
+        <v>0.3945323658174757</v>
       </c>
       <c r="G17">
-        <v>0.2998219381224416</v>
+        <v>0.2601534158309704</v>
       </c>
       <c r="H17">
-        <v>0.1242289192763337</v>
+        <v>0.1242189642213845</v>
       </c>
       <c r="I17">
-        <v>0.004731794364372988</v>
+        <v>0.004999313684968421</v>
       </c>
       <c r="J17">
-        <v>0.2585811941365037</v>
+        <v>0.2670551318389727</v>
       </c>
       <c r="K17">
-        <v>0.3697332121088976</v>
+        <v>0.3207927444643488</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.153616546545873</v>
       </c>
       <c r="M17">
-        <v>3.212053480953671</v>
+        <v>0.09975250818179759</v>
       </c>
       <c r="N17">
-        <v>0.05155617957487735</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5467812333686481</v>
+        <v>3.128277174741186</v>
       </c>
       <c r="P17">
-        <v>1.180864442335263</v>
+        <v>0.05114432932468915</v>
       </c>
       <c r="Q17">
-        <v>1.126251766383291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5182566356477665</v>
+      </c>
+      <c r="R17">
+        <v>1.235278818654706</v>
+      </c>
+      <c r="S17">
+        <v>1.014946992142271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1945747136928446</v>
+        <v>0.1445227475995736</v>
       </c>
       <c r="D18">
-        <v>0.1074711450426591</v>
+        <v>0.1148905179207844</v>
       </c>
       <c r="E18">
-        <v>0.06090322858701303</v>
+        <v>0.05614677544185032</v>
       </c>
       <c r="F18">
-        <v>0.4540331415208527</v>
+        <v>0.4150785922756839</v>
       </c>
       <c r="G18">
-        <v>0.3229259695259756</v>
+        <v>0.2758046565598704</v>
       </c>
       <c r="H18">
-        <v>0.07137593430500289</v>
+        <v>0.07136767844401959</v>
       </c>
       <c r="I18">
-        <v>0.004396536232119885</v>
+        <v>0.004638349855899726</v>
       </c>
       <c r="J18">
-        <v>0.2715916345155378</v>
+        <v>0.2843266771261312</v>
       </c>
       <c r="K18">
-        <v>0.3987628851165894</v>
+        <v>0.345854312931543</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1641481897406933</v>
       </c>
       <c r="M18">
-        <v>3.170041099446223</v>
+        <v>0.1077948554012309</v>
       </c>
       <c r="N18">
-        <v>0.04947537601600382</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.593443625322827</v>
+        <v>3.086775168615702</v>
       </c>
       <c r="P18">
-        <v>1.129788093977695</v>
+        <v>0.0514804881640103</v>
       </c>
       <c r="Q18">
-        <v>1.202419490348618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.562877152594055</v>
+      </c>
+      <c r="R18">
+        <v>1.181421718901305</v>
+      </c>
+      <c r="S18">
+        <v>1.084778205646245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2233429738294603</v>
+        <v>0.1639390204837952</v>
       </c>
       <c r="D19">
-        <v>0.100578663795595</v>
+        <v>0.108112212870175</v>
       </c>
       <c r="E19">
-        <v>0.07925030597796656</v>
+        <v>0.07218431972831496</v>
       </c>
       <c r="F19">
-        <v>0.4870876908041168</v>
+        <v>0.4441174617374983</v>
       </c>
       <c r="G19">
-        <v>0.3556705997027336</v>
+        <v>0.3024486407123703</v>
       </c>
       <c r="H19">
-        <v>0.02626391630032288</v>
+        <v>0.02624734644727766</v>
       </c>
       <c r="I19">
-        <v>0.004680219510172279</v>
+        <v>0.004920400713548823</v>
       </c>
       <c r="J19">
-        <v>0.2886627354130979</v>
+        <v>0.3008315457271209</v>
       </c>
       <c r="K19">
-        <v>0.4389420175414571</v>
+        <v>0.3789176358495396</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1768294281346634</v>
       </c>
       <c r="M19">
-        <v>3.18710479386624</v>
+        <v>0.1200120376281895</v>
       </c>
       <c r="N19">
-        <v>0.0617217403375605</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6686415312492713</v>
+        <v>3.098782391380553</v>
       </c>
       <c r="P19">
-        <v>1.076737700418448</v>
+        <v>0.06699699108854773</v>
       </c>
       <c r="Q19">
-        <v>1.307574712068231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6340534139468303</v>
+      </c>
+      <c r="R19">
+        <v>1.12822436438617</v>
+      </c>
+      <c r="S19">
+        <v>1.175468766254369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2806832298954731</v>
+        <v>0.2031141488083819</v>
       </c>
       <c r="D20">
-        <v>0.095103718814606</v>
+        <v>0.1037403353737574</v>
       </c>
       <c r="E20">
-        <v>0.1230944017351305</v>
+        <v>0.1116808574622148</v>
       </c>
       <c r="F20">
-        <v>0.5537435916196785</v>
+        <v>0.4992259446961569</v>
       </c>
       <c r="G20">
-        <v>0.4176985897038321</v>
+        <v>0.3626322680599259</v>
       </c>
       <c r="H20">
-        <v>0.00076595243815758</v>
+        <v>0.0006827946013392427</v>
       </c>
       <c r="I20">
-        <v>0.005879825262441685</v>
+        <v>0.005955925473566381</v>
       </c>
       <c r="J20">
-        <v>0.3182006766979981</v>
+        <v>0.314858337572268</v>
       </c>
       <c r="K20">
-        <v>0.5135945293934228</v>
+        <v>0.436919286994943</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1955024468153397</v>
       </c>
       <c r="M20">
-        <v>3.377142501066942</v>
+        <v>0.145847195425258</v>
       </c>
       <c r="N20">
-        <v>0.1115393896696943</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8247818981251598</v>
+        <v>3.268667844117942</v>
       </c>
       <c r="P20">
-        <v>1.013317723030099</v>
+        <v>0.1224704206733023</v>
       </c>
       <c r="Q20">
-        <v>1.501044658182252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7804069262737201</v>
+      </c>
+      <c r="R20">
+        <v>1.070860216970473</v>
+      </c>
+      <c r="S20">
+        <v>1.330246175361623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.309447174498473</v>
+        <v>0.2240368361080129</v>
       </c>
       <c r="D21">
-        <v>0.1047189753002442</v>
+        <v>0.1174361845267384</v>
       </c>
       <c r="E21">
-        <v>0.1366765867246578</v>
+        <v>0.1239272263984752</v>
       </c>
       <c r="F21">
-        <v>0.6018657197431523</v>
+        <v>0.5237735881824293</v>
       </c>
       <c r="G21">
-        <v>0.4525505550299442</v>
+        <v>0.4572794588761155</v>
       </c>
       <c r="H21">
-        <v>0.001662255622779218</v>
+        <v>0.001395043385071904</v>
       </c>
       <c r="I21">
-        <v>0.008306686696397669</v>
+        <v>0.00791682975055874</v>
       </c>
       <c r="J21">
-        <v>0.3299841819656137</v>
+        <v>0.2498421238002493</v>
       </c>
       <c r="K21">
-        <v>0.5506307558116461</v>
+        <v>0.4518536508108113</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1918165913079619</v>
       </c>
       <c r="M21">
-        <v>3.800146052392847</v>
+        <v>0.1633428920094389</v>
       </c>
       <c r="N21">
-        <v>0.1245342446196531</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9373562881015829</v>
+        <v>3.637857133510124</v>
       </c>
       <c r="P21">
-        <v>1.028831997132812</v>
+        <v>0.1366741847858393</v>
       </c>
       <c r="Q21">
-        <v>1.59991977846397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8803950909188671</v>
+      </c>
+      <c r="R21">
+        <v>1.113543915916168</v>
+      </c>
+      <c r="S21">
+        <v>1.356801504388329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3275050935870354</v>
+        <v>0.2376372411431902</v>
       </c>
       <c r="D22">
-        <v>0.1112071533219492</v>
+        <v>0.1268088954909246</v>
       </c>
       <c r="E22">
-        <v>0.1434217732657466</v>
+        <v>0.1300547649152328</v>
       </c>
       <c r="F22">
-        <v>0.6326389871469686</v>
+        <v>0.5381248891694952</v>
       </c>
       <c r="G22">
-        <v>0.4745470668975997</v>
+        <v>0.5275648162315605</v>
       </c>
       <c r="H22">
-        <v>0.002501943676873508</v>
+        <v>0.002070824528038639</v>
       </c>
       <c r="I22">
-        <v>0.009841595074290055</v>
+        <v>0.009015445417189127</v>
       </c>
       <c r="J22">
-        <v>0.3373434930479817</v>
+        <v>0.2125247917504751</v>
       </c>
       <c r="K22">
-        <v>0.5737955367755063</v>
+        <v>0.4599904951532068</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1888746200355769</v>
       </c>
       <c r="M22">
-        <v>4.075751726984663</v>
+        <v>0.1745253258429713</v>
       </c>
       <c r="N22">
-        <v>0.1296336825699314</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.005696944208239</v>
+        <v>3.875696597214926</v>
       </c>
       <c r="P22">
-        <v>1.041546238646063</v>
+        <v>0.1422866567247354</v>
       </c>
       <c r="Q22">
-        <v>1.662160926195185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9403493635109896</v>
+      </c>
+      <c r="R22">
+        <v>1.145565393428072</v>
+      </c>
+      <c r="S22">
+        <v>1.36884339535726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.319805846385762</v>
+        <v>0.2315509610017727</v>
       </c>
       <c r="D23">
-        <v>0.1075475623704065</v>
+        <v>0.1212972542295603</v>
       </c>
       <c r="E23">
-        <v>0.1400957557520783</v>
+        <v>0.1269559274914478</v>
       </c>
       <c r="F23">
-        <v>0.6174760592925281</v>
+        <v>0.533347457990601</v>
       </c>
       <c r="G23">
-        <v>0.4640778847419682</v>
+        <v>0.4828214666508472</v>
       </c>
       <c r="H23">
-        <v>0.002041137418295702</v>
+        <v>0.001704763529836062</v>
       </c>
       <c r="I23">
-        <v>0.008743490039349489</v>
+        <v>0.008100997758507589</v>
       </c>
       <c r="J23">
-        <v>0.3340480682324625</v>
+        <v>0.2383525022584649</v>
       </c>
       <c r="K23">
-        <v>0.5632777857632618</v>
+        <v>0.4585224209751573</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1914218813959465</v>
       </c>
       <c r="M23">
-        <v>3.931235017122788</v>
+        <v>0.1697154976912856</v>
       </c>
       <c r="N23">
-        <v>0.1266879305179813</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9703315338697607</v>
+        <v>3.755206679742003</v>
       </c>
       <c r="P23">
-        <v>1.033373142943546</v>
+        <v>0.139055916666841</v>
       </c>
       <c r="Q23">
-        <v>1.632960831232083</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9099666642281576</v>
+      </c>
+      <c r="R23">
+        <v>1.125058586353759</v>
+      </c>
+      <c r="S23">
+        <v>1.37131310258016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.287231343226054</v>
+        <v>0.2079217497085466</v>
       </c>
       <c r="D24">
-        <v>0.09402408641552995</v>
+        <v>0.1026195571934707</v>
       </c>
       <c r="E24">
-        <v>0.1270281915448166</v>
+        <v>0.115290102471576</v>
       </c>
       <c r="F24">
-        <v>0.5591563413367666</v>
+        <v>0.5041895157519249</v>
       </c>
       <c r="G24">
-        <v>0.4233179648491756</v>
+        <v>0.3670952900906457</v>
       </c>
       <c r="H24">
-        <v>0.0006918064061132156</v>
+        <v>0.0006049984769760375</v>
       </c>
       <c r="I24">
-        <v>0.005467736394701994</v>
+        <v>0.005439067193584002</v>
       </c>
       <c r="J24">
-        <v>0.3211115337871036</v>
+        <v>0.3180752926209607</v>
       </c>
       <c r="K24">
-        <v>0.5210118153742513</v>
+        <v>0.4433087294596305</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1979788049291429</v>
       </c>
       <c r="M24">
-        <v>3.379129668731935</v>
+        <v>0.1481813745270628</v>
       </c>
       <c r="N24">
-        <v>0.1159473192886011</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8344797957749037</v>
+        <v>3.270363331356691</v>
       </c>
       <c r="P24">
-        <v>1.006082601381507</v>
+        <v>0.1272738257131607</v>
       </c>
       <c r="Q24">
-        <v>1.519050423131176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7896472612991019</v>
+      </c>
+      <c r="R24">
+        <v>1.063189185028506</v>
+      </c>
+      <c r="S24">
+        <v>1.346440371909864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2515790030400211</v>
+        <v>0.1855288235750976</v>
       </c>
       <c r="D25">
-        <v>0.07944724990893803</v>
+        <v>0.0857043369561552</v>
       </c>
       <c r="E25">
-        <v>0.112867660310787</v>
+        <v>0.1034469739317885</v>
       </c>
       <c r="F25">
-        <v>0.4987010742637636</v>
+        <v>0.4558309907681348</v>
       </c>
       <c r="G25">
-        <v>0.3813771269500847</v>
+        <v>0.3283301506200544</v>
       </c>
       <c r="H25">
-        <v>2.508398372347287E-05</v>
+        <v>2.634340239815458E-05</v>
       </c>
       <c r="I25">
-        <v>0.002887935757854621</v>
+        <v>0.003190799197081873</v>
       </c>
       <c r="J25">
-        <v>0.3083985108027889</v>
+        <v>0.3166059162493937</v>
       </c>
       <c r="K25">
-        <v>0.476676437782956</v>
+        <v>0.4137740075328864</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.200249473645858</v>
       </c>
       <c r="M25">
-        <v>2.782141095242395</v>
+        <v>0.1217275604498873</v>
       </c>
       <c r="N25">
-        <v>0.1044409265627095</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6876771613255599</v>
+        <v>2.702226688067697</v>
       </c>
       <c r="P25">
-        <v>0.979567911968104</v>
+        <v>0.1145812385437281</v>
       </c>
       <c r="Q25">
-        <v>1.403044457989978</v>
+        <v>0.6533842006528019</v>
+      </c>
+      <c r="R25">
+        <v>1.019811929947835</v>
+      </c>
+      <c r="S25">
+        <v>1.266505411247522</v>
       </c>
     </row>
   </sheetData>
